--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/ENTRADAS CENTRAL PRODUCCION OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/ENTRADAS CENTRAL PRODUCCION OCT-23.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -192,6 +192,15 @@
   <si>
     <t>NOTA 2630</t>
   </si>
+  <si>
+    <t xml:space="preserve">CARNES G SA DE CV </t>
+  </si>
+  <si>
+    <t>PERICO-CHAMBARETE, T-BONE-ARRACHERA IN SIDE-HUESO-FILETE DE CAÑA-PALETA-HIGADO ES</t>
+  </si>
+  <si>
+    <t>21708-A</t>
+  </si>
 </sst>
 </file>
 
@@ -205,7 +214,7 @@
     <numFmt numFmtId="167" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,6 +714,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -780,7 +797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="118">
+  <borders count="124">
     <border>
       <left/>
       <right/>
@@ -1819,19 +1836,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="mediumDashed">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="mediumDashed">
         <color indexed="64"/>
       </left>
@@ -2237,12 +2241,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="631">
+  <cellXfs count="644">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3569,7 +3656,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3610,22 +3696,22 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="38" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3634,14 +3720,203 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3649,7 +3924,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3658,26 +3933,26 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="38" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3685,203 +3960,74 @@
     <xf numFmtId="165" fontId="38" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3910,70 +4056,52 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4294,49 +4422,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="591" t="s">
+      <c r="A1" s="516" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="591"/>
-      <c r="C1" s="591"/>
-      <c r="D1" s="591"/>
-      <c r="E1" s="591"/>
-      <c r="F1" s="591"/>
-      <c r="G1" s="591"/>
-      <c r="H1" s="591"/>
-      <c r="I1" s="591"/>
-      <c r="J1" s="591"/>
+      <c r="B1" s="516"/>
+      <c r="C1" s="516"/>
+      <c r="D1" s="516"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
+      <c r="J1" s="516"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="S1" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="592"/>
+      <c r="S1" s="517" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="517"/>
       <c r="U1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="594" t="s">
+      <c r="W1" s="519" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="595"/>
+      <c r="X1" s="520"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="591"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="591"/>
-      <c r="F2" s="591"/>
-      <c r="G2" s="591"/>
-      <c r="H2" s="591"/>
-      <c r="I2" s="591"/>
-      <c r="J2" s="591"/>
+      <c r="A2" s="516"/>
+      <c r="B2" s="516"/>
+      <c r="C2" s="516"/>
+      <c r="D2" s="516"/>
+      <c r="E2" s="516"/>
+      <c r="F2" s="516"/>
+      <c r="G2" s="516"/>
+      <c r="H2" s="516"/>
+      <c r="I2" s="516"/>
+      <c r="J2" s="516"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
@@ -4344,8 +4472,8 @@
       <c r="O2" s="12"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="593"/>
-      <c r="T2" s="593"/>
+      <c r="S2" s="518"/>
+      <c r="T2" s="518"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -4390,10 +4518,10 @@
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="596" t="s">
+      <c r="O3" s="521" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="597"/>
+      <c r="P3" s="522"/>
       <c r="Q3" s="32" t="s">
         <v>17</v>
       </c>
@@ -4686,8 +4814,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="598"/>
-      <c r="M12" s="599"/>
+      <c r="L12" s="523"/>
+      <c r="M12" s="524"/>
       <c r="N12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6477,24 +6605,24 @@
       <c r="V63" s="207"/>
     </row>
     <row r="64" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="583" t="s">
+      <c r="A64" s="529" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="581" t="s">
+      <c r="C64" s="527" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="209"/>
       <c r="E64" s="91"/>
-      <c r="F64" s="494">
+      <c r="F64" s="493">
         <v>146</v>
       </c>
-      <c r="G64" s="585">
+      <c r="G64" s="531">
         <v>45182</v>
       </c>
-      <c r="H64" s="587" t="s">
+      <c r="H64" s="533" t="s">
         <v>41</v>
       </c>
       <c r="I64" s="491">
@@ -6507,7 +6635,7 @@
       <c r="K64" s="235">
         <v>38</v>
       </c>
-      <c r="L64" s="589" t="s">
+      <c r="L64" s="562" t="s">
         <v>42</v>
       </c>
       <c r="M64" s="487"/>
@@ -6515,10 +6643,10 @@
         <f t="shared" si="1"/>
         <v>5548</v>
       </c>
-      <c r="O64" s="555" t="s">
+      <c r="O64" s="538" t="s">
         <v>21</v>
       </c>
-      <c r="P64" s="557">
+      <c r="P64" s="540">
         <v>45229</v>
       </c>
       <c r="Q64" s="212"/>
@@ -6529,18 +6657,18 @@
       <c r="V64" s="78"/>
     </row>
     <row r="65" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="584"/>
+      <c r="A65" s="530"/>
       <c r="B65" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="582"/>
+      <c r="C65" s="528"/>
       <c r="D65" s="213"/>
       <c r="E65" s="91"/>
-      <c r="F65" s="494">
+      <c r="F65" s="493">
         <v>185</v>
       </c>
-      <c r="G65" s="586"/>
-      <c r="H65" s="588"/>
+      <c r="G65" s="532"/>
+      <c r="H65" s="534"/>
       <c r="I65" s="491">
         <v>185</v>
       </c>
@@ -6551,14 +6679,14 @@
       <c r="K65" s="235">
         <v>38</v>
       </c>
-      <c r="L65" s="590"/>
+      <c r="L65" s="563"/>
       <c r="M65" s="487"/>
       <c r="N65" s="50">
         <f t="shared" si="1"/>
         <v>7030</v>
       </c>
-      <c r="O65" s="556"/>
-      <c r="P65" s="558"/>
+      <c r="O65" s="539"/>
+      <c r="P65" s="541"/>
       <c r="Q65" s="214"/>
       <c r="R65" s="177"/>
       <c r="S65" s="76"/>
@@ -6567,24 +6695,24 @@
       <c r="V65" s="78"/>
     </row>
     <row r="66" spans="1:22" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="559" t="s">
+      <c r="A66" s="542" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="538" t="s">
+      <c r="C66" s="564" t="s">
         <v>46</v>
       </c>
       <c r="D66" s="213"/>
       <c r="E66" s="91"/>
-      <c r="F66" s="494">
+      <c r="F66" s="493">
         <v>163.4</v>
       </c>
-      <c r="G66" s="541">
+      <c r="G66" s="567">
         <v>45188</v>
       </c>
-      <c r="H66" s="544" t="s">
+      <c r="H66" s="570" t="s">
         <v>47</v>
       </c>
       <c r="I66" s="491">
@@ -6597,7 +6725,7 @@
       <c r="K66" s="235">
         <v>163.4</v>
       </c>
-      <c r="L66" s="547" t="s">
+      <c r="L66" s="573" t="s">
         <v>48</v>
       </c>
       <c r="M66" s="487"/>
@@ -6605,10 +6733,10 @@
         <f t="shared" si="1"/>
         <v>26699.56</v>
       </c>
-      <c r="O66" s="549" t="s">
+      <c r="O66" s="575" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="552">
+      <c r="P66" s="535">
         <v>45229</v>
       </c>
       <c r="Q66" s="214"/>
@@ -6619,18 +6747,18 @@
       <c r="V66" s="78"/>
     </row>
     <row r="67" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="560"/>
+      <c r="A67" s="543"/>
       <c r="B67" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="539"/>
+      <c r="C67" s="565"/>
       <c r="D67" s="213"/>
       <c r="E67" s="91"/>
-      <c r="F67" s="494">
+      <c r="F67" s="493">
         <v>85.04</v>
       </c>
-      <c r="G67" s="542"/>
-      <c r="H67" s="545"/>
+      <c r="G67" s="568"/>
+      <c r="H67" s="571"/>
       <c r="I67" s="491">
         <v>85.04</v>
       </c>
@@ -6641,14 +6769,14 @@
       <c r="K67" s="235">
         <v>85.04</v>
       </c>
-      <c r="L67" s="548"/>
+      <c r="L67" s="574"/>
       <c r="M67" s="487"/>
       <c r="N67" s="50">
         <f t="shared" si="1"/>
         <v>7231.8016000000007</v>
       </c>
-      <c r="O67" s="550"/>
-      <c r="P67" s="553"/>
+      <c r="O67" s="576"/>
+      <c r="P67" s="536"/>
       <c r="Q67" s="214"/>
       <c r="R67" s="221"/>
       <c r="S67" s="76"/>
@@ -6657,18 +6785,18 @@
       <c r="V67" s="78"/>
     </row>
     <row r="68" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="560"/>
+      <c r="A68" s="543"/>
       <c r="B68" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="539"/>
+      <c r="C68" s="565"/>
       <c r="D68" s="213"/>
       <c r="E68" s="91"/>
-      <c r="F68" s="494">
+      <c r="F68" s="493">
         <v>123.64</v>
       </c>
-      <c r="G68" s="542"/>
-      <c r="H68" s="545"/>
+      <c r="G68" s="568"/>
+      <c r="H68" s="571"/>
       <c r="I68" s="491">
         <v>123.64</v>
       </c>
@@ -6679,14 +6807,14 @@
       <c r="K68" s="235">
         <v>123.64</v>
       </c>
-      <c r="L68" s="548"/>
+      <c r="L68" s="574"/>
       <c r="M68" s="487"/>
       <c r="N68" s="50">
         <f t="shared" si="1"/>
         <v>15286.8496</v>
       </c>
-      <c r="O68" s="550"/>
-      <c r="P68" s="553"/>
+      <c r="O68" s="576"/>
+      <c r="P68" s="536"/>
       <c r="Q68" s="214"/>
       <c r="R68" s="221"/>
       <c r="S68" s="76"/>
@@ -6695,18 +6823,18 @@
       <c r="V68" s="78"/>
     </row>
     <row r="69" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="561"/>
+      <c r="A69" s="544"/>
       <c r="B69" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="540"/>
+      <c r="C69" s="566"/>
       <c r="D69" s="213"/>
       <c r="E69" s="91"/>
-      <c r="F69" s="494">
+      <c r="F69" s="493">
         <v>68.680000000000007</v>
       </c>
-      <c r="G69" s="543"/>
-      <c r="H69" s="546"/>
+      <c r="G69" s="569"/>
+      <c r="H69" s="572"/>
       <c r="I69" s="491">
         <v>68.680000000000007</v>
       </c>
@@ -6717,14 +6845,14 @@
       <c r="K69" s="235">
         <v>68.680000000000007</v>
       </c>
-      <c r="L69" s="548"/>
+      <c r="L69" s="574"/>
       <c r="M69" s="487"/>
       <c r="N69" s="50">
         <f t="shared" si="1"/>
         <v>4716.9424000000008</v>
       </c>
-      <c r="O69" s="551"/>
-      <c r="P69" s="554"/>
+      <c r="O69" s="577"/>
+      <c r="P69" s="537"/>
       <c r="Q69" s="214"/>
       <c r="R69" s="221"/>
       <c r="S69" s="76"/>
@@ -6733,25 +6861,25 @@
       <c r="V69" s="78"/>
     </row>
     <row r="70" spans="1:22" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="509" t="s">
+      <c r="A70" s="508" t="s">
         <v>30</v>
       </c>
       <c r="B70" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="510" t="s">
+      <c r="C70" s="509" t="s">
         <v>49</v>
       </c>
       <c r="D70" s="213"/>
       <c r="E70" s="91"/>
-      <c r="F70" s="494">
+      <c r="F70" s="493">
         <f>86.3-51.8</f>
         <v>34.5</v>
       </c>
-      <c r="G70" s="511">
+      <c r="G70" s="510">
         <v>45188</v>
       </c>
-      <c r="H70" s="512" t="s">
+      <c r="H70" s="511" t="s">
         <v>50</v>
       </c>
       <c r="I70" s="491">
@@ -6765,7 +6893,7 @@
       <c r="K70" s="235">
         <v>70</v>
       </c>
-      <c r="L70" s="514" t="s">
+      <c r="L70" s="513" t="s">
         <v>51</v>
       </c>
       <c r="M70" s="487"/>
@@ -6773,10 +6901,10 @@
         <f t="shared" si="1"/>
         <v>2415</v>
       </c>
-      <c r="O70" s="515" t="s">
+      <c r="O70" s="514" t="s">
         <v>21</v>
       </c>
-      <c r="P70" s="516">
+      <c r="P70" s="515">
         <v>45229</v>
       </c>
       <c r="Q70" s="214"/>
@@ -6787,24 +6915,24 @@
       <c r="V70" s="78"/>
     </row>
     <row r="71" spans="1:22" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="520" t="s">
+      <c r="A71" s="581" t="s">
         <v>30</v>
       </c>
       <c r="B71" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="523" t="s">
+      <c r="C71" s="584" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="213"/>
       <c r="E71" s="91"/>
-      <c r="F71" s="494">
+      <c r="F71" s="493">
         <v>27.36</v>
       </c>
-      <c r="G71" s="526">
+      <c r="G71" s="587">
         <v>45195</v>
       </c>
-      <c r="H71" s="529" t="s">
+      <c r="H71" s="590" t="s">
         <v>53</v>
       </c>
       <c r="I71" s="491">
@@ -6817,7 +6945,7 @@
       <c r="K71" s="235">
         <v>70</v>
       </c>
-      <c r="L71" s="532" t="s">
+      <c r="L71" s="593" t="s">
         <v>54</v>
       </c>
       <c r="M71" s="487"/>
@@ -6825,10 +6953,10 @@
         <f t="shared" si="1"/>
         <v>1915.2</v>
       </c>
-      <c r="O71" s="535" t="s">
+      <c r="O71" s="596" t="s">
         <v>21</v>
       </c>
-      <c r="P71" s="517">
+      <c r="P71" s="578">
         <v>45229</v>
       </c>
       <c r="Q71" s="214"/>
@@ -6839,18 +6967,18 @@
       <c r="V71" s="78"/>
     </row>
     <row r="72" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="521"/>
+      <c r="A72" s="582"/>
       <c r="B72" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="524"/>
+      <c r="C72" s="585"/>
       <c r="D72" s="213"/>
       <c r="E72" s="91"/>
-      <c r="F72" s="494">
+      <c r="F72" s="493">
         <v>58.08</v>
       </c>
-      <c r="G72" s="527"/>
-      <c r="H72" s="530"/>
+      <c r="G72" s="588"/>
+      <c r="H72" s="591"/>
       <c r="I72" s="491">
         <v>58.08</v>
       </c>
@@ -6861,14 +6989,14 @@
       <c r="K72" s="235">
         <v>70</v>
       </c>
-      <c r="L72" s="533"/>
+      <c r="L72" s="594"/>
       <c r="M72" s="487"/>
       <c r="N72" s="50">
         <f t="shared" si="1"/>
         <v>4065.6</v>
       </c>
-      <c r="O72" s="536"/>
-      <c r="P72" s="518"/>
+      <c r="O72" s="597"/>
+      <c r="P72" s="579"/>
       <c r="Q72" s="214"/>
       <c r="R72" s="221"/>
       <c r="S72" s="76"/>
@@ -6877,18 +7005,18 @@
       <c r="V72" s="78"/>
     </row>
     <row r="73" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="521"/>
+      <c r="A73" s="582"/>
       <c r="B73" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="524"/>
+      <c r="C73" s="585"/>
       <c r="D73" s="213"/>
       <c r="E73" s="91"/>
-      <c r="F73" s="494">
+      <c r="F73" s="493">
         <v>30.02</v>
       </c>
-      <c r="G73" s="527"/>
-      <c r="H73" s="530"/>
+      <c r="G73" s="588"/>
+      <c r="H73" s="591"/>
       <c r="I73" s="491">
         <v>30.02</v>
       </c>
@@ -6899,14 +7027,14 @@
       <c r="K73" s="235">
         <v>38</v>
       </c>
-      <c r="L73" s="533"/>
+      <c r="L73" s="594"/>
       <c r="M73" s="487"/>
       <c r="N73" s="50">
         <f t="shared" si="1"/>
         <v>1140.76</v>
       </c>
-      <c r="O73" s="536"/>
-      <c r="P73" s="518"/>
+      <c r="O73" s="597"/>
+      <c r="P73" s="579"/>
       <c r="Q73" s="214"/>
       <c r="R73" s="221"/>
       <c r="S73" s="76"/>
@@ -6915,18 +7043,18 @@
       <c r="V73" s="78"/>
     </row>
     <row r="74" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="522"/>
+      <c r="A74" s="583"/>
       <c r="B74" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="525"/>
+      <c r="C74" s="586"/>
       <c r="D74" s="213"/>
       <c r="E74" s="91"/>
-      <c r="F74" s="494">
+      <c r="F74" s="493">
         <v>86.18</v>
       </c>
-      <c r="G74" s="528"/>
-      <c r="H74" s="531"/>
+      <c r="G74" s="589"/>
+      <c r="H74" s="592"/>
       <c r="I74" s="491">
         <v>86.18</v>
       </c>
@@ -6937,14 +7065,14 @@
       <c r="K74" s="235">
         <v>60</v>
       </c>
-      <c r="L74" s="534"/>
+      <c r="L74" s="595"/>
       <c r="M74" s="487"/>
       <c r="N74" s="50">
         <f t="shared" si="1"/>
         <v>5170.8</v>
       </c>
-      <c r="O74" s="537"/>
-      <c r="P74" s="519"/>
+      <c r="O74" s="598"/>
+      <c r="P74" s="580"/>
       <c r="Q74" s="214"/>
       <c r="R74" s="221"/>
       <c r="S74" s="76"/>
@@ -6955,26 +7083,26 @@
     <row r="75" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="215"/>
       <c r="B75" s="216"/>
-      <c r="C75" s="504"/>
+      <c r="C75" s="503"/>
       <c r="D75" s="213"/>
       <c r="E75" s="91"/>
-      <c r="F75" s="494"/>
-      <c r="G75" s="505"/>
-      <c r="H75" s="506"/>
+      <c r="F75" s="493"/>
+      <c r="G75" s="504"/>
+      <c r="H75" s="505"/>
       <c r="I75" s="491"/>
       <c r="J75" s="229">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K75" s="235"/>
-      <c r="L75" s="513"/>
+      <c r="L75" s="512"/>
       <c r="M75" s="487"/>
       <c r="N75" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O75" s="507"/>
-      <c r="P75" s="508"/>
+      <c r="O75" s="506"/>
+      <c r="P75" s="507"/>
       <c r="Q75" s="214"/>
       <c r="R75" s="221"/>
       <c r="S75" s="76"/>
@@ -6983,24 +7111,24 @@
       <c r="V75" s="78"/>
     </row>
     <row r="76" spans="1:22" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="559" t="s">
+      <c r="A76" s="542" t="s">
         <v>30</v>
       </c>
       <c r="B76" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="562" t="s">
+      <c r="C76" s="545" t="s">
         <v>38</v>
       </c>
       <c r="D76" s="213"/>
       <c r="E76" s="91"/>
-      <c r="F76" s="494">
+      <c r="F76" s="493">
         <v>43.58</v>
       </c>
-      <c r="G76" s="565">
+      <c r="G76" s="548">
         <v>45198</v>
       </c>
-      <c r="H76" s="568" t="s">
+      <c r="H76" s="551" t="s">
         <v>43</v>
       </c>
       <c r="I76" s="491">
@@ -7013,7 +7141,7 @@
       <c r="K76" s="235">
         <v>43.58</v>
       </c>
-      <c r="L76" s="571" t="s">
+      <c r="L76" s="554" t="s">
         <v>44</v>
       </c>
       <c r="M76" s="487"/>
@@ -7021,10 +7149,10 @@
         <f t="shared" si="1"/>
         <v>1899.2163999999998</v>
       </c>
-      <c r="O76" s="573" t="s">
+      <c r="O76" s="556" t="s">
         <v>21</v>
       </c>
-      <c r="P76" s="576">
+      <c r="P76" s="559">
         <v>45229</v>
       </c>
       <c r="Q76" s="214"/>
@@ -7035,19 +7163,19 @@
       <c r="V76" s="78"/>
     </row>
     <row r="77" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="560"/>
+      <c r="A77" s="543"/>
       <c r="B77" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="563"/>
+      <c r="C77" s="546"/>
       <c r="D77" s="213"/>
       <c r="E77" s="91"/>
-      <c r="F77" s="495">
+      <c r="F77" s="494">
         <v>32.32</v>
       </c>
-      <c r="G77" s="566"/>
-      <c r="H77" s="569"/>
-      <c r="I77" s="493">
+      <c r="G77" s="549"/>
+      <c r="H77" s="552"/>
+      <c r="I77" s="492">
         <v>32.32</v>
       </c>
       <c r="J77" s="229">
@@ -7057,14 +7185,14 @@
       <c r="K77" s="235">
         <v>32.32</v>
       </c>
-      <c r="L77" s="571"/>
+      <c r="L77" s="554"/>
       <c r="M77" s="487"/>
       <c r="N77" s="50">
         <f t="shared" si="1"/>
         <v>1044.5824</v>
       </c>
-      <c r="O77" s="574"/>
-      <c r="P77" s="577"/>
+      <c r="O77" s="557"/>
+      <c r="P77" s="560"/>
       <c r="Q77" s="214"/>
       <c r="R77" s="221"/>
       <c r="S77" s="76"/>
@@ -7073,18 +7201,18 @@
       <c r="V77" s="78"/>
     </row>
     <row r="78" spans="1:22" s="208" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="561"/>
+      <c r="A78" s="544"/>
       <c r="B78" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="564"/>
+      <c r="C78" s="547"/>
       <c r="D78" s="217"/>
       <c r="E78" s="91"/>
-      <c r="F78" s="494">
+      <c r="F78" s="493">
         <v>110.74</v>
       </c>
-      <c r="G78" s="567"/>
-      <c r="H78" s="570"/>
+      <c r="G78" s="550"/>
+      <c r="H78" s="553"/>
       <c r="I78" s="491">
         <v>110.74</v>
       </c>
@@ -7095,14 +7223,14 @@
       <c r="K78" s="235">
         <v>110.74</v>
       </c>
-      <c r="L78" s="572"/>
+      <c r="L78" s="555"/>
       <c r="M78" s="487"/>
       <c r="N78" s="202">
         <f t="shared" si="1"/>
         <v>12263.347599999999</v>
       </c>
-      <c r="O78" s="575"/>
-      <c r="P78" s="578"/>
+      <c r="O78" s="558"/>
+      <c r="P78" s="561"/>
       <c r="Q78" s="214"/>
       <c r="R78" s="231"/>
       <c r="S78" s="76"/>
@@ -7113,12 +7241,12 @@
     <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" s="489"/>
       <c r="B79" s="216"/>
-      <c r="C79" s="499"/>
+      <c r="C79" s="498"/>
       <c r="D79" s="213"/>
       <c r="E79" s="91"/>
-      <c r="F79" s="494"/>
-      <c r="G79" s="496"/>
-      <c r="H79" s="500"/>
+      <c r="F79" s="493"/>
+      <c r="G79" s="495"/>
+      <c r="H79" s="499"/>
       <c r="I79" s="491"/>
       <c r="J79" s="229">
         <f t="shared" si="0"/>
@@ -7131,24 +7259,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="501"/>
-      <c r="P79" s="502"/>
+      <c r="O79" s="500"/>
+      <c r="P79" s="501"/>
       <c r="Q79" s="241"/>
       <c r="R79" s="221"/>
-      <c r="S79" s="503"/>
-      <c r="T79" s="503"/>
+      <c r="S79" s="502"/>
+      <c r="T79" s="502"/>
       <c r="U79" s="222"/>
       <c r="V79" s="78"/>
     </row>
     <row r="80" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="247"/>
       <c r="B80" s="216"/>
-      <c r="C80" s="498"/>
+      <c r="C80" s="497"/>
       <c r="D80" s="213"/>
       <c r="E80" s="91"/>
-      <c r="F80" s="494"/>
+      <c r="F80" s="493"/>
       <c r="G80" s="484"/>
-      <c r="H80" s="497"/>
+      <c r="H80" s="496"/>
       <c r="I80" s="491"/>
       <c r="J80" s="229">
         <f t="shared" si="0"/>
@@ -7165,8 +7293,8 @@
       <c r="P80" s="464"/>
       <c r="Q80" s="241"/>
       <c r="R80" s="221"/>
-      <c r="S80" s="503"/>
-      <c r="T80" s="503"/>
+      <c r="S80" s="502"/>
+      <c r="T80" s="502"/>
       <c r="U80" s="222"/>
       <c r="V80" s="78"/>
     </row>
@@ -7176,7 +7304,7 @@
       <c r="C81" s="460"/>
       <c r="D81" s="213"/>
       <c r="E81" s="91"/>
-      <c r="F81" s="494"/>
+      <c r="F81" s="493"/>
       <c r="G81" s="484"/>
       <c r="H81" s="483"/>
       <c r="I81" s="491"/>
@@ -7195,8 +7323,8 @@
       <c r="P81" s="464"/>
       <c r="Q81" s="241"/>
       <c r="R81" s="221"/>
-      <c r="S81" s="503"/>
-      <c r="T81" s="503"/>
+      <c r="S81" s="502"/>
+      <c r="T81" s="502"/>
       <c r="U81" s="222"/>
       <c r="V81" s="78"/>
     </row>
@@ -7222,8 +7350,8 @@
       <c r="P82" s="464"/>
       <c r="Q82" s="241"/>
       <c r="R82" s="221"/>
-      <c r="S82" s="503"/>
-      <c r="T82" s="503"/>
+      <c r="S82" s="502"/>
+      <c r="T82" s="502"/>
       <c r="U82" s="222"/>
       <c r="V82" s="78"/>
     </row>
@@ -7249,8 +7377,8 @@
       <c r="P83" s="464"/>
       <c r="Q83" s="241"/>
       <c r="R83" s="221"/>
-      <c r="S83" s="503"/>
-      <c r="T83" s="503"/>
+      <c r="S83" s="502"/>
+      <c r="T83" s="502"/>
       <c r="U83" s="222"/>
       <c r="V83" s="78"/>
     </row>
@@ -7279,8 +7407,8 @@
       <c r="P84" s="464"/>
       <c r="Q84" s="241"/>
       <c r="R84" s="221"/>
-      <c r="S84" s="503"/>
-      <c r="T84" s="503"/>
+      <c r="S84" s="502"/>
+      <c r="T84" s="502"/>
       <c r="U84" s="222"/>
       <c r="V84" s="78"/>
     </row>
@@ -7309,8 +7437,8 @@
       <c r="P85" s="464"/>
       <c r="Q85" s="241"/>
       <c r="R85" s="231"/>
-      <c r="S85" s="503"/>
-      <c r="T85" s="503"/>
+      <c r="S85" s="502"/>
+      <c r="T85" s="502"/>
       <c r="U85" s="232"/>
       <c r="V85" s="207"/>
     </row>
@@ -7339,8 +7467,8 @@
       <c r="P86" s="464"/>
       <c r="Q86" s="241"/>
       <c r="R86" s="221"/>
-      <c r="S86" s="503"/>
-      <c r="T86" s="503"/>
+      <c r="S86" s="502"/>
+      <c r="T86" s="502"/>
       <c r="U86" s="222"/>
       <c r="V86" s="78"/>
     </row>
@@ -7368,8 +7496,8 @@
       <c r="P87" s="464"/>
       <c r="Q87" s="241"/>
       <c r="R87" s="221"/>
-      <c r="S87" s="503"/>
-      <c r="T87" s="503"/>
+      <c r="S87" s="502"/>
+      <c r="T87" s="502"/>
       <c r="U87" s="222"/>
       <c r="V87" s="78"/>
     </row>
@@ -7398,8 +7526,8 @@
       <c r="P88" s="464"/>
       <c r="Q88" s="241"/>
       <c r="R88" s="221"/>
-      <c r="S88" s="503"/>
-      <c r="T88" s="503"/>
+      <c r="S88" s="502"/>
+      <c r="T88" s="502"/>
       <c r="U88" s="222"/>
       <c r="V88" s="78"/>
     </row>
@@ -14268,11 +14396,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F300" s="579" t="s">
+      <c r="F300" s="525" t="s">
         <v>26</v>
       </c>
-      <c r="G300" s="579"/>
-      <c r="H300" s="580"/>
+      <c r="G300" s="525"/>
+      <c r="H300" s="526"/>
       <c r="I300" s="397">
         <f>SUM(I5:I299)</f>
         <v>1194.54</v>
@@ -14837,16 +14965,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="F300:H300"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="O71:O74"/>
     <mergeCell ref="P66:P69"/>
     <mergeCell ref="O64:O65"/>
     <mergeCell ref="P64:P65"/>
@@ -14863,14 +14989,16 @@
     <mergeCell ref="G66:G69"/>
     <mergeCell ref="H66:H69"/>
     <mergeCell ref="L66:L69"/>
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="F300:H300"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14883,8 +15011,8 @@
   </sheetPr>
   <dimension ref="A1:X323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="G61" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -14914,49 +15042,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="591" t="s">
+      <c r="A1" s="516" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="591"/>
-      <c r="C1" s="591"/>
-      <c r="D1" s="591"/>
-      <c r="E1" s="591"/>
-      <c r="F1" s="591"/>
-      <c r="G1" s="591"/>
-      <c r="H1" s="591"/>
-      <c r="I1" s="591"/>
-      <c r="J1" s="591"/>
+      <c r="B1" s="516"/>
+      <c r="C1" s="516"/>
+      <c r="D1" s="516"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
+      <c r="G1" s="516"/>
+      <c r="H1" s="516"/>
+      <c r="I1" s="516"/>
+      <c r="J1" s="516"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="S1" s="592" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="592"/>
+      <c r="S1" s="517" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="517"/>
       <c r="U1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="594" t="s">
+      <c r="W1" s="519" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="595"/>
+      <c r="X1" s="520"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="591"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="591"/>
-      <c r="F2" s="591"/>
-      <c r="G2" s="591"/>
-      <c r="H2" s="591"/>
-      <c r="I2" s="591"/>
-      <c r="J2" s="591"/>
+      <c r="A2" s="516"/>
+      <c r="B2" s="516"/>
+      <c r="C2" s="516"/>
+      <c r="D2" s="516"/>
+      <c r="E2" s="516"/>
+      <c r="F2" s="516"/>
+      <c r="G2" s="516"/>
+      <c r="H2" s="516"/>
+      <c r="I2" s="516"/>
+      <c r="J2" s="516"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
@@ -14964,8 +15092,8 @@
       <c r="O2" s="12"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="593"/>
-      <c r="T2" s="593"/>
+      <c r="S2" s="518"/>
+      <c r="T2" s="518"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -15010,10 +15138,10 @@
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="596" t="s">
+      <c r="O3" s="521" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="597"/>
+      <c r="P3" s="522"/>
       <c r="Q3" s="32" t="s">
         <v>17</v>
       </c>
@@ -15306,8 +15434,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="598"/>
-      <c r="M12" s="599"/>
+      <c r="L12" s="523"/>
+      <c r="M12" s="524"/>
       <c r="N12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17097,24 +17225,24 @@
       <c r="V63" s="207"/>
     </row>
     <row r="64" spans="1:24" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="583" t="s">
+      <c r="A64" s="529" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="625" t="s">
+      <c r="C64" s="613" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="209"/>
       <c r="E64" s="91"/>
-      <c r="F64" s="494">
+      <c r="F64" s="493">
         <v>127.38</v>
       </c>
-      <c r="G64" s="541">
+      <c r="G64" s="567">
         <v>45202</v>
       </c>
-      <c r="H64" s="587" t="s">
+      <c r="H64" s="533" t="s">
         <v>35</v>
       </c>
       <c r="I64" s="491">
@@ -17127,7 +17255,7 @@
       <c r="K64" s="235">
         <v>70</v>
       </c>
-      <c r="L64" s="628" t="s">
+      <c r="L64" s="616" t="s">
         <v>37</v>
       </c>
       <c r="M64" s="487"/>
@@ -17135,10 +17263,10 @@
         <f t="shared" si="1"/>
         <v>8916.6</v>
       </c>
-      <c r="O64" s="609" t="s">
+      <c r="O64" s="599" t="s">
         <v>36</v>
       </c>
-      <c r="P64" s="612">
+      <c r="P64" s="602">
         <v>45229</v>
       </c>
       <c r="Q64" s="212"/>
@@ -17149,18 +17277,18 @@
       <c r="V64" s="78"/>
     </row>
     <row r="65" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="624"/>
+      <c r="A65" s="612"/>
       <c r="B65" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="626"/>
+      <c r="C65" s="614"/>
       <c r="D65" s="213"/>
       <c r="E65" s="91"/>
-      <c r="F65" s="494">
+      <c r="F65" s="493">
         <v>35.1</v>
       </c>
-      <c r="G65" s="542"/>
-      <c r="H65" s="588"/>
+      <c r="G65" s="568"/>
+      <c r="H65" s="534"/>
       <c r="I65" s="491">
         <v>35.1</v>
       </c>
@@ -17171,14 +17299,14 @@
       <c r="K65" s="235">
         <v>60</v>
       </c>
-      <c r="L65" s="629"/>
+      <c r="L65" s="617"/>
       <c r="M65" s="487"/>
       <c r="N65" s="50">
         <f t="shared" si="1"/>
         <v>2106</v>
       </c>
-      <c r="O65" s="610"/>
-      <c r="P65" s="613"/>
+      <c r="O65" s="600"/>
+      <c r="P65" s="603"/>
       <c r="Q65" s="214"/>
       <c r="R65" s="177"/>
       <c r="S65" s="76"/>
@@ -17187,18 +17315,18 @@
       <c r="V65" s="78"/>
     </row>
     <row r="66" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="624"/>
+      <c r="A66" s="612"/>
       <c r="B66" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="626"/>
+      <c r="C66" s="614"/>
       <c r="D66" s="213"/>
       <c r="E66" s="91"/>
-      <c r="F66" s="494">
+      <c r="F66" s="493">
         <v>94.5</v>
       </c>
-      <c r="G66" s="542"/>
-      <c r="H66" s="588"/>
+      <c r="G66" s="568"/>
+      <c r="H66" s="534"/>
       <c r="I66" s="491">
         <v>94.5</v>
       </c>
@@ -17209,14 +17337,14 @@
       <c r="K66" s="235">
         <v>110</v>
       </c>
-      <c r="L66" s="629"/>
+      <c r="L66" s="617"/>
       <c r="M66" s="487"/>
       <c r="N66" s="50">
         <f t="shared" si="1"/>
         <v>10395</v>
       </c>
-      <c r="O66" s="610"/>
-      <c r="P66" s="613"/>
+      <c r="O66" s="600"/>
+      <c r="P66" s="603"/>
       <c r="Q66" s="214"/>
       <c r="R66" s="177"/>
       <c r="S66" s="76"/>
@@ -17225,19 +17353,19 @@
       <c r="V66" s="78"/>
     </row>
     <row r="67" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="584"/>
+      <c r="A67" s="530"/>
       <c r="B67" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="627"/>
+      <c r="C67" s="615"/>
       <c r="D67" s="213"/>
       <c r="E67" s="91"/>
-      <c r="F67" s="495">
+      <c r="F67" s="494">
         <v>100.88</v>
       </c>
-      <c r="G67" s="543"/>
-      <c r="H67" s="588"/>
-      <c r="I67" s="493">
+      <c r="G67" s="569"/>
+      <c r="H67" s="534"/>
+      <c r="I67" s="492">
         <v>100.88</v>
       </c>
       <c r="J67" s="229">
@@ -17247,14 +17375,14 @@
       <c r="K67" s="235">
         <v>38</v>
       </c>
-      <c r="L67" s="630"/>
+      <c r="L67" s="618"/>
       <c r="M67" s="487"/>
       <c r="N67" s="50">
         <f t="shared" si="1"/>
         <v>3833.4399999999996</v>
       </c>
-      <c r="O67" s="611"/>
-      <c r="P67" s="614"/>
+      <c r="O67" s="601"/>
+      <c r="P67" s="604"/>
       <c r="Q67" s="214"/>
       <c r="R67" s="177"/>
       <c r="S67" s="76"/>
@@ -17263,22 +17391,22 @@
       <c r="V67" s="78"/>
     </row>
     <row r="68" spans="1:22" s="208" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="559" t="s">
+      <c r="A68" s="542" t="s">
         <v>30</v>
       </c>
       <c r="B68" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="615" t="s">
+      <c r="C68" s="605" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="217"/>
       <c r="E68" s="91"/>
-      <c r="F68" s="494">
+      <c r="F68" s="493">
         <v>43.58</v>
       </c>
-      <c r="G68" s="618"/>
-      <c r="H68" s="621"/>
+      <c r="G68" s="607"/>
+      <c r="H68" s="609"/>
       <c r="I68" s="491"/>
       <c r="J68" s="229">
         <f t="shared" si="0"/>
@@ -17301,18 +17429,18 @@
       <c r="V68" s="207"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A69" s="560"/>
+      <c r="A69" s="543"/>
       <c r="B69" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="616"/>
+      <c r="C69" s="606"/>
       <c r="D69" s="213"/>
       <c r="E69" s="91"/>
-      <c r="F69" s="494">
+      <c r="F69" s="493">
         <v>32.32</v>
       </c>
-      <c r="G69" s="619"/>
-      <c r="H69" s="622"/>
+      <c r="G69" s="608"/>
+      <c r="H69" s="610"/>
       <c r="I69" s="491"/>
       <c r="J69" s="229">
         <f t="shared" si="0"/>
@@ -17329,28 +17457,28 @@
       <c r="P69" s="464"/>
       <c r="Q69" s="241"/>
       <c r="R69" s="221"/>
-      <c r="S69" s="600">
+      <c r="S69" s="619">
         <v>28000</v>
       </c>
-      <c r="T69" s="600" t="s">
+      <c r="T69" s="619" t="s">
         <v>24</v>
       </c>
       <c r="U69" s="222"/>
       <c r="V69" s="78"/>
     </row>
     <row r="70" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="561"/>
-      <c r="B70" s="216" t="s">
+      <c r="A70" s="543"/>
+      <c r="B70" s="636" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="617"/>
+      <c r="C70" s="606"/>
       <c r="D70" s="213"/>
       <c r="E70" s="91"/>
-      <c r="F70" s="494">
+      <c r="F70" s="493">
         <v>110.74</v>
       </c>
-      <c r="G70" s="620"/>
-      <c r="H70" s="623"/>
+      <c r="G70" s="608"/>
+      <c r="H70" s="611"/>
       <c r="I70" s="491"/>
       <c r="J70" s="229">
         <f t="shared" si="0"/>
@@ -17367,50 +17495,64 @@
       <c r="P70" s="464"/>
       <c r="Q70" s="241"/>
       <c r="R70" s="221"/>
-      <c r="S70" s="601"/>
-      <c r="T70" s="601"/>
+      <c r="S70" s="620"/>
+      <c r="T70" s="620"/>
       <c r="U70" s="222"/>
       <c r="V70" s="78"/>
     </row>
-    <row r="71" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="489"/>
-      <c r="B71" s="216"/>
-      <c r="C71" s="490"/>
-      <c r="D71" s="213"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="483"/>
-      <c r="G71" s="496"/>
-      <c r="H71" s="492"/>
-      <c r="I71" s="483"/>
+    <row r="71" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="642" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="640" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="638"/>
+      <c r="D71" s="628"/>
+      <c r="E71" s="628"/>
+      <c r="F71" s="628"/>
+      <c r="G71" s="632">
+        <v>45230</v>
+      </c>
+      <c r="H71" s="634" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="483">
+        <v>51548.53</v>
+      </c>
       <c r="J71" s="229">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="226"/>
+        <v>51548.53</v>
+      </c>
+      <c r="K71" s="226">
+        <v>1</v>
+      </c>
       <c r="L71" s="223"/>
       <c r="M71" s="219"/>
       <c r="N71" s="202">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O71" s="253"/>
+        <v>51548.53</v>
+      </c>
+      <c r="O71" s="253" t="s">
+        <v>36</v>
+      </c>
       <c r="P71" s="464"/>
       <c r="Q71" s="241"/>
       <c r="R71" s="221"/>
-      <c r="S71" s="601"/>
-      <c r="T71" s="601"/>
+      <c r="S71" s="620"/>
+      <c r="T71" s="620"/>
       <c r="U71" s="222"/>
       <c r="V71" s="78"/>
     </row>
-    <row r="72" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="247"/>
-      <c r="B72" s="216"/>
-      <c r="C72" s="460"/>
-      <c r="D72" s="213"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="483"/>
-      <c r="G72" s="484"/>
-      <c r="H72" s="483"/>
+    <row r="72" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="643"/>
+      <c r="B72" s="641"/>
+      <c r="C72" s="639"/>
+      <c r="D72" s="629"/>
+      <c r="E72" s="629"/>
+      <c r="F72" s="629"/>
+      <c r="G72" s="633"/>
+      <c r="H72" s="635"/>
       <c r="I72" s="483"/>
       <c r="J72" s="229"/>
       <c r="K72" s="226"/>
@@ -17424,19 +17566,19 @@
       <c r="P72" s="464"/>
       <c r="Q72" s="241"/>
       <c r="R72" s="221"/>
-      <c r="S72" s="601"/>
-      <c r="T72" s="601"/>
+      <c r="S72" s="620"/>
+      <c r="T72" s="620"/>
       <c r="U72" s="222"/>
       <c r="V72" s="78"/>
     </row>
     <row r="73" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="247"/>
-      <c r="B73" s="216"/>
-      <c r="C73" s="460"/>
+      <c r="A73" s="489"/>
+      <c r="B73" s="637"/>
+      <c r="C73" s="490"/>
       <c r="D73" s="213"/>
       <c r="E73" s="91"/>
       <c r="F73" s="483"/>
-      <c r="G73" s="484"/>
+      <c r="G73" s="630"/>
       <c r="H73" s="483"/>
       <c r="I73" s="483"/>
       <c r="J73" s="229"/>
@@ -17451,8 +17593,8 @@
       <c r="P73" s="464"/>
       <c r="Q73" s="241"/>
       <c r="R73" s="221"/>
-      <c r="S73" s="601"/>
-      <c r="T73" s="601"/>
+      <c r="S73" s="620"/>
+      <c r="T73" s="620"/>
       <c r="U73" s="222"/>
       <c r="V73" s="78"/>
     </row>
@@ -17463,7 +17605,7 @@
       <c r="D74" s="213"/>
       <c r="E74" s="91"/>
       <c r="F74" s="483"/>
-      <c r="G74" s="484"/>
+      <c r="G74" s="631"/>
       <c r="H74" s="483"/>
       <c r="I74" s="483"/>
       <c r="J74" s="229">
@@ -17481,8 +17623,8 @@
       <c r="P74" s="464"/>
       <c r="Q74" s="241"/>
       <c r="R74" s="221"/>
-      <c r="S74" s="602"/>
-      <c r="T74" s="602"/>
+      <c r="S74" s="621"/>
+      <c r="T74" s="621"/>
       <c r="U74" s="222"/>
       <c r="V74" s="78"/>
     </row>
@@ -17511,10 +17653,10 @@
       <c r="P75" s="464"/>
       <c r="Q75" s="241"/>
       <c r="R75" s="231"/>
-      <c r="S75" s="603">
+      <c r="S75" s="622">
         <v>28000</v>
       </c>
-      <c r="T75" s="606" t="s">
+      <c r="T75" s="625" t="s">
         <v>25</v>
       </c>
       <c r="U75" s="232"/>
@@ -17545,8 +17687,8 @@
       <c r="P76" s="464"/>
       <c r="Q76" s="241"/>
       <c r="R76" s="221"/>
-      <c r="S76" s="604"/>
-      <c r="T76" s="607"/>
+      <c r="S76" s="623"/>
+      <c r="T76" s="626"/>
       <c r="U76" s="222"/>
       <c r="V76" s="78"/>
     </row>
@@ -17574,8 +17716,8 @@
       <c r="P77" s="464"/>
       <c r="Q77" s="241"/>
       <c r="R77" s="221"/>
-      <c r="S77" s="604"/>
-      <c r="T77" s="607"/>
+      <c r="S77" s="623"/>
+      <c r="T77" s="626"/>
       <c r="U77" s="222"/>
       <c r="V77" s="78"/>
     </row>
@@ -17604,8 +17746,8 @@
       <c r="P78" s="464"/>
       <c r="Q78" s="241"/>
       <c r="R78" s="221"/>
-      <c r="S78" s="605"/>
-      <c r="T78" s="608"/>
+      <c r="S78" s="624"/>
+      <c r="T78" s="627"/>
       <c r="U78" s="222"/>
       <c r="V78" s="78"/>
     </row>
@@ -24472,14 +24614,14 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F290" s="579" t="s">
+      <c r="F290" s="525" t="s">
         <v>26</v>
       </c>
-      <c r="G290" s="579"/>
-      <c r="H290" s="580"/>
+      <c r="G290" s="525"/>
+      <c r="H290" s="526"/>
       <c r="I290" s="397">
         <f>SUM(I5:I289)</f>
-        <v>357.86</v>
+        <v>51906.39</v>
       </c>
       <c r="J290" s="398"/>
       <c r="K290" s="394"/>
@@ -24577,7 +24719,7 @@
       <c r="M294" s="417"/>
       <c r="N294" s="418">
         <f>SUM(N5:N293)</f>
-        <v>25251.039999999997</v>
+        <v>76799.569999999992</v>
       </c>
       <c r="O294" s="419"/>
       <c r="Q294" s="420">
@@ -24635,7 +24777,7 @@
       <c r="M297" s="435"/>
       <c r="N297" s="436">
         <f>V294+S294+Q294+N294+L294</f>
-        <v>81251.039999999994</v>
+        <v>132799.57</v>
       </c>
       <c r="O297" s="437"/>
       <c r="R297" s="404"/>
@@ -25040,12 +25182,16 @@
       <c r="V323"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
+  <mergeCells count="25">
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="S69:S74"/>
+    <mergeCell ref="T69:T74"/>
+    <mergeCell ref="S75:S78"/>
+    <mergeCell ref="T75:T78"/>
+    <mergeCell ref="F290:H290"/>
+    <mergeCell ref="H71:H72"/>
     <mergeCell ref="O64:O67"/>
     <mergeCell ref="P64:P67"/>
     <mergeCell ref="A68:A70"/>
@@ -25057,11 +25203,11 @@
     <mergeCell ref="G64:G67"/>
     <mergeCell ref="H64:H67"/>
     <mergeCell ref="L64:L67"/>
-    <mergeCell ref="S69:S74"/>
-    <mergeCell ref="T69:T74"/>
-    <mergeCell ref="S75:S78"/>
-    <mergeCell ref="T75:T78"/>
-    <mergeCell ref="F290:H290"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/ENTRADAS CENTRAL PRODUCCION OCT-23.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #10 OCTUBRE 2023/ENTRADAS CENTRAL PRODUCCION OCT-23.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -201,6 +201,18 @@
   <si>
     <t>21708-A</t>
   </si>
+  <si>
+    <t xml:space="preserve">ADAMS INT MORELIA </t>
+  </si>
+  <si>
+    <t>CUERO COMBO</t>
+  </si>
+  <si>
+    <t>FOLIO PRODUCCION    0008</t>
+  </si>
+  <si>
+    <t>PU-121592</t>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +226,7 @@
     <numFmt numFmtId="167" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +734,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -2329,7 +2349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="644">
+  <cellXfs count="652">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3720,6 +3740,249 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3747,226 +4010,61 @@
     <xf numFmtId="165" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4029,80 +4127,24 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4111,6 +4153,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF008000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4422,49 +4469,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="516" t="s">
+      <c r="A1" s="597" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="516"/>
-      <c r="C1" s="516"/>
-      <c r="D1" s="516"/>
-      <c r="E1" s="516"/>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
-      <c r="J1" s="516"/>
+      <c r="B1" s="597"/>
+      <c r="C1" s="597"/>
+      <c r="D1" s="597"/>
+      <c r="E1" s="597"/>
+      <c r="F1" s="597"/>
+      <c r="G1" s="597"/>
+      <c r="H1" s="597"/>
+      <c r="I1" s="597"/>
+      <c r="J1" s="597"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="S1" s="517" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="517"/>
+      <c r="S1" s="598" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="598"/>
       <c r="U1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="519" t="s">
+      <c r="W1" s="600" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="520"/>
+      <c r="X1" s="601"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="516"/>
-      <c r="B2" s="516"/>
-      <c r="C2" s="516"/>
-      <c r="D2" s="516"/>
-      <c r="E2" s="516"/>
-      <c r="F2" s="516"/>
-      <c r="G2" s="516"/>
-      <c r="H2" s="516"/>
-      <c r="I2" s="516"/>
-      <c r="J2" s="516"/>
+      <c r="A2" s="597"/>
+      <c r="B2" s="597"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="597"/>
+      <c r="F2" s="597"/>
+      <c r="G2" s="597"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="597"/>
+      <c r="J2" s="597"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
@@ -4472,8 +4519,8 @@
       <c r="O2" s="12"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="518"/>
-      <c r="T2" s="518"/>
+      <c r="S2" s="599"/>
+      <c r="T2" s="599"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -4518,10 +4565,10 @@
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="521" t="s">
+      <c r="O3" s="602" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="522"/>
+      <c r="P3" s="603"/>
       <c r="Q3" s="32" t="s">
         <v>17</v>
       </c>
@@ -4814,8 +4861,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="523"/>
-      <c r="M12" s="524"/>
+      <c r="L12" s="604"/>
+      <c r="M12" s="605"/>
       <c r="N12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6605,13 +6652,13 @@
       <c r="V63" s="207"/>
     </row>
     <row r="64" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="529" t="s">
+      <c r="A64" s="591" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="527" t="s">
+      <c r="C64" s="589" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="209"/>
@@ -6619,10 +6666,10 @@
       <c r="F64" s="493">
         <v>146</v>
       </c>
-      <c r="G64" s="531">
+      <c r="G64" s="593">
         <v>45182</v>
       </c>
-      <c r="H64" s="533" t="s">
+      <c r="H64" s="595" t="s">
         <v>41</v>
       </c>
       <c r="I64" s="491">
@@ -6635,7 +6682,7 @@
       <c r="K64" s="235">
         <v>38</v>
       </c>
-      <c r="L64" s="562" t="s">
+      <c r="L64" s="574" t="s">
         <v>42</v>
       </c>
       <c r="M64" s="487"/>
@@ -6643,10 +6690,10 @@
         <f t="shared" si="1"/>
         <v>5548</v>
       </c>
-      <c r="O64" s="538" t="s">
+      <c r="O64" s="550" t="s">
         <v>21</v>
       </c>
-      <c r="P64" s="540">
+      <c r="P64" s="552">
         <v>45229</v>
       </c>
       <c r="Q64" s="212"/>
@@ -6657,18 +6704,18 @@
       <c r="V64" s="78"/>
     </row>
     <row r="65" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="530"/>
+      <c r="A65" s="592"/>
       <c r="B65" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="528"/>
+      <c r="C65" s="590"/>
       <c r="D65" s="213"/>
       <c r="E65" s="91"/>
       <c r="F65" s="493">
         <v>185</v>
       </c>
-      <c r="G65" s="532"/>
-      <c r="H65" s="534"/>
+      <c r="G65" s="594"/>
+      <c r="H65" s="596"/>
       <c r="I65" s="491">
         <v>185</v>
       </c>
@@ -6679,14 +6726,14 @@
       <c r="K65" s="235">
         <v>38</v>
       </c>
-      <c r="L65" s="563"/>
+      <c r="L65" s="575"/>
       <c r="M65" s="487"/>
       <c r="N65" s="50">
         <f t="shared" si="1"/>
         <v>7030</v>
       </c>
-      <c r="O65" s="539"/>
-      <c r="P65" s="541"/>
+      <c r="O65" s="551"/>
+      <c r="P65" s="553"/>
       <c r="Q65" s="214"/>
       <c r="R65" s="177"/>
       <c r="S65" s="76"/>
@@ -6695,13 +6742,13 @@
       <c r="V65" s="78"/>
     </row>
     <row r="66" spans="1:22" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="542" t="s">
+      <c r="A66" s="554" t="s">
         <v>30</v>
       </c>
       <c r="B66" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="564" t="s">
+      <c r="C66" s="576" t="s">
         <v>46</v>
       </c>
       <c r="D66" s="213"/>
@@ -6709,10 +6756,10 @@
       <c r="F66" s="493">
         <v>163.4</v>
       </c>
-      <c r="G66" s="567">
+      <c r="G66" s="579">
         <v>45188</v>
       </c>
-      <c r="H66" s="570" t="s">
+      <c r="H66" s="582" t="s">
         <v>47</v>
       </c>
       <c r="I66" s="491">
@@ -6725,7 +6772,7 @@
       <c r="K66" s="235">
         <v>163.4</v>
       </c>
-      <c r="L66" s="573" t="s">
+      <c r="L66" s="585" t="s">
         <v>48</v>
       </c>
       <c r="M66" s="487"/>
@@ -6733,10 +6780,10 @@
         <f t="shared" si="1"/>
         <v>26699.56</v>
       </c>
-      <c r="O66" s="575" t="s">
+      <c r="O66" s="523" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="535">
+      <c r="P66" s="547">
         <v>45229</v>
       </c>
       <c r="Q66" s="214"/>
@@ -6747,18 +6794,18 @@
       <c r="V66" s="78"/>
     </row>
     <row r="67" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="543"/>
+      <c r="A67" s="555"/>
       <c r="B67" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="565"/>
+      <c r="C67" s="577"/>
       <c r="D67" s="213"/>
       <c r="E67" s="91"/>
       <c r="F67" s="493">
         <v>85.04</v>
       </c>
-      <c r="G67" s="568"/>
-      <c r="H67" s="571"/>
+      <c r="G67" s="580"/>
+      <c r="H67" s="583"/>
       <c r="I67" s="491">
         <v>85.04</v>
       </c>
@@ -6769,14 +6816,14 @@
       <c r="K67" s="235">
         <v>85.04</v>
       </c>
-      <c r="L67" s="574"/>
+      <c r="L67" s="586"/>
       <c r="M67" s="487"/>
       <c r="N67" s="50">
         <f t="shared" si="1"/>
         <v>7231.8016000000007</v>
       </c>
-      <c r="O67" s="576"/>
-      <c r="P67" s="536"/>
+      <c r="O67" s="524"/>
+      <c r="P67" s="548"/>
       <c r="Q67" s="214"/>
       <c r="R67" s="221"/>
       <c r="S67" s="76"/>
@@ -6785,18 +6832,18 @@
       <c r="V67" s="78"/>
     </row>
     <row r="68" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="543"/>
+      <c r="A68" s="555"/>
       <c r="B68" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="565"/>
+      <c r="C68" s="577"/>
       <c r="D68" s="213"/>
       <c r="E68" s="91"/>
       <c r="F68" s="493">
         <v>123.64</v>
       </c>
-      <c r="G68" s="568"/>
-      <c r="H68" s="571"/>
+      <c r="G68" s="580"/>
+      <c r="H68" s="583"/>
       <c r="I68" s="491">
         <v>123.64</v>
       </c>
@@ -6807,14 +6854,14 @@
       <c r="K68" s="235">
         <v>123.64</v>
       </c>
-      <c r="L68" s="574"/>
+      <c r="L68" s="586"/>
       <c r="M68" s="487"/>
       <c r="N68" s="50">
         <f t="shared" si="1"/>
         <v>15286.8496</v>
       </c>
-      <c r="O68" s="576"/>
-      <c r="P68" s="536"/>
+      <c r="O68" s="524"/>
+      <c r="P68" s="548"/>
       <c r="Q68" s="214"/>
       <c r="R68" s="221"/>
       <c r="S68" s="76"/>
@@ -6823,18 +6870,18 @@
       <c r="V68" s="78"/>
     </row>
     <row r="69" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="544"/>
+      <c r="A69" s="556"/>
       <c r="B69" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="566"/>
+      <c r="C69" s="578"/>
       <c r="D69" s="213"/>
       <c r="E69" s="91"/>
       <c r="F69" s="493">
         <v>68.680000000000007</v>
       </c>
-      <c r="G69" s="569"/>
-      <c r="H69" s="572"/>
+      <c r="G69" s="581"/>
+      <c r="H69" s="584"/>
       <c r="I69" s="491">
         <v>68.680000000000007</v>
       </c>
@@ -6845,14 +6892,14 @@
       <c r="K69" s="235">
         <v>68.680000000000007</v>
       </c>
-      <c r="L69" s="574"/>
+      <c r="L69" s="586"/>
       <c r="M69" s="487"/>
       <c r="N69" s="50">
         <f t="shared" si="1"/>
         <v>4716.9424000000008</v>
       </c>
-      <c r="O69" s="577"/>
-      <c r="P69" s="537"/>
+      <c r="O69" s="525"/>
+      <c r="P69" s="549"/>
       <c r="Q69" s="214"/>
       <c r="R69" s="221"/>
       <c r="S69" s="76"/>
@@ -6915,13 +6962,13 @@
       <c r="V70" s="78"/>
     </row>
     <row r="71" spans="1:22" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="581" t="s">
+      <c r="A71" s="529" t="s">
         <v>30</v>
       </c>
       <c r="B71" s="216" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="584" t="s">
+      <c r="C71" s="532" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="213"/>
@@ -6929,10 +6976,10 @@
       <c r="F71" s="493">
         <v>27.36</v>
       </c>
-      <c r="G71" s="587">
+      <c r="G71" s="535">
         <v>45195</v>
       </c>
-      <c r="H71" s="590" t="s">
+      <c r="H71" s="538" t="s">
         <v>53</v>
       </c>
       <c r="I71" s="491">
@@ -6945,7 +6992,7 @@
       <c r="K71" s="235">
         <v>70</v>
       </c>
-      <c r="L71" s="593" t="s">
+      <c r="L71" s="541" t="s">
         <v>54</v>
       </c>
       <c r="M71" s="487"/>
@@ -6953,10 +7000,10 @@
         <f t="shared" si="1"/>
         <v>1915.2</v>
       </c>
-      <c r="O71" s="596" t="s">
+      <c r="O71" s="544" t="s">
         <v>21</v>
       </c>
-      <c r="P71" s="578">
+      <c r="P71" s="526">
         <v>45229</v>
       </c>
       <c r="Q71" s="214"/>
@@ -6967,18 +7014,18 @@
       <c r="V71" s="78"/>
     </row>
     <row r="72" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="582"/>
+      <c r="A72" s="530"/>
       <c r="B72" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="585"/>
+      <c r="C72" s="533"/>
       <c r="D72" s="213"/>
       <c r="E72" s="91"/>
       <c r="F72" s="493">
         <v>58.08</v>
       </c>
-      <c r="G72" s="588"/>
-      <c r="H72" s="591"/>
+      <c r="G72" s="536"/>
+      <c r="H72" s="539"/>
       <c r="I72" s="491">
         <v>58.08</v>
       </c>
@@ -6989,14 +7036,14 @@
       <c r="K72" s="235">
         <v>70</v>
       </c>
-      <c r="L72" s="594"/>
+      <c r="L72" s="542"/>
       <c r="M72" s="487"/>
       <c r="N72" s="50">
         <f t="shared" si="1"/>
         <v>4065.6</v>
       </c>
-      <c r="O72" s="597"/>
-      <c r="P72" s="579"/>
+      <c r="O72" s="545"/>
+      <c r="P72" s="527"/>
       <c r="Q72" s="214"/>
       <c r="R72" s="221"/>
       <c r="S72" s="76"/>
@@ -7005,18 +7052,18 @@
       <c r="V72" s="78"/>
     </row>
     <row r="73" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="582"/>
+      <c r="A73" s="530"/>
       <c r="B73" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="585"/>
+      <c r="C73" s="533"/>
       <c r="D73" s="213"/>
       <c r="E73" s="91"/>
       <c r="F73" s="493">
         <v>30.02</v>
       </c>
-      <c r="G73" s="588"/>
-      <c r="H73" s="591"/>
+      <c r="G73" s="536"/>
+      <c r="H73" s="539"/>
       <c r="I73" s="491">
         <v>30.02</v>
       </c>
@@ -7027,14 +7074,14 @@
       <c r="K73" s="235">
         <v>38</v>
       </c>
-      <c r="L73" s="594"/>
+      <c r="L73" s="542"/>
       <c r="M73" s="487"/>
       <c r="N73" s="50">
         <f t="shared" si="1"/>
         <v>1140.76</v>
       </c>
-      <c r="O73" s="597"/>
-      <c r="P73" s="579"/>
+      <c r="O73" s="545"/>
+      <c r="P73" s="527"/>
       <c r="Q73" s="214"/>
       <c r="R73" s="221"/>
       <c r="S73" s="76"/>
@@ -7043,18 +7090,18 @@
       <c r="V73" s="78"/>
     </row>
     <row r="74" spans="1:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="583"/>
+      <c r="A74" s="531"/>
       <c r="B74" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C74" s="586"/>
+      <c r="C74" s="534"/>
       <c r="D74" s="213"/>
       <c r="E74" s="91"/>
       <c r="F74" s="493">
         <v>86.18</v>
       </c>
-      <c r="G74" s="589"/>
-      <c r="H74" s="592"/>
+      <c r="G74" s="537"/>
+      <c r="H74" s="540"/>
       <c r="I74" s="491">
         <v>86.18</v>
       </c>
@@ -7065,14 +7112,14 @@
       <c r="K74" s="235">
         <v>60</v>
       </c>
-      <c r="L74" s="595"/>
+      <c r="L74" s="543"/>
       <c r="M74" s="487"/>
       <c r="N74" s="50">
         <f t="shared" si="1"/>
         <v>5170.8</v>
       </c>
-      <c r="O74" s="598"/>
-      <c r="P74" s="580"/>
+      <c r="O74" s="546"/>
+      <c r="P74" s="528"/>
       <c r="Q74" s="214"/>
       <c r="R74" s="221"/>
       <c r="S74" s="76"/>
@@ -7111,13 +7158,13 @@
       <c r="V75" s="78"/>
     </row>
     <row r="76" spans="1:22" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="542" t="s">
+      <c r="A76" s="554" t="s">
         <v>30</v>
       </c>
       <c r="B76" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="545" t="s">
+      <c r="C76" s="557" t="s">
         <v>38</v>
       </c>
       <c r="D76" s="213"/>
@@ -7125,10 +7172,10 @@
       <c r="F76" s="493">
         <v>43.58</v>
       </c>
-      <c r="G76" s="548">
+      <c r="G76" s="560">
         <v>45198</v>
       </c>
-      <c r="H76" s="551" t="s">
+      <c r="H76" s="563" t="s">
         <v>43</v>
       </c>
       <c r="I76" s="491">
@@ -7141,7 +7188,7 @@
       <c r="K76" s="235">
         <v>43.58</v>
       </c>
-      <c r="L76" s="554" t="s">
+      <c r="L76" s="566" t="s">
         <v>44</v>
       </c>
       <c r="M76" s="487"/>
@@ -7149,10 +7196,10 @@
         <f t="shared" si="1"/>
         <v>1899.2163999999998</v>
       </c>
-      <c r="O76" s="556" t="s">
+      <c r="O76" s="568" t="s">
         <v>21</v>
       </c>
-      <c r="P76" s="559">
+      <c r="P76" s="571">
         <v>45229</v>
       </c>
       <c r="Q76" s="214"/>
@@ -7163,18 +7210,18 @@
       <c r="V76" s="78"/>
     </row>
     <row r="77" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="543"/>
+      <c r="A77" s="555"/>
       <c r="B77" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="546"/>
+      <c r="C77" s="558"/>
       <c r="D77" s="213"/>
       <c r="E77" s="91"/>
       <c r="F77" s="494">
         <v>32.32</v>
       </c>
-      <c r="G77" s="549"/>
-      <c r="H77" s="552"/>
+      <c r="G77" s="561"/>
+      <c r="H77" s="564"/>
       <c r="I77" s="492">
         <v>32.32</v>
       </c>
@@ -7185,14 +7232,14 @@
       <c r="K77" s="235">
         <v>32.32</v>
       </c>
-      <c r="L77" s="554"/>
+      <c r="L77" s="566"/>
       <c r="M77" s="487"/>
       <c r="N77" s="50">
         <f t="shared" si="1"/>
         <v>1044.5824</v>
       </c>
-      <c r="O77" s="557"/>
-      <c r="P77" s="560"/>
+      <c r="O77" s="569"/>
+      <c r="P77" s="572"/>
       <c r="Q77" s="214"/>
       <c r="R77" s="221"/>
       <c r="S77" s="76"/>
@@ -7201,18 +7248,18 @@
       <c r="V77" s="78"/>
     </row>
     <row r="78" spans="1:22" s="208" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="544"/>
+      <c r="A78" s="556"/>
       <c r="B78" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="547"/>
+      <c r="C78" s="559"/>
       <c r="D78" s="217"/>
       <c r="E78" s="91"/>
       <c r="F78" s="493">
         <v>110.74</v>
       </c>
-      <c r="G78" s="550"/>
-      <c r="H78" s="553"/>
+      <c r="G78" s="562"/>
+      <c r="H78" s="565"/>
       <c r="I78" s="491">
         <v>110.74</v>
       </c>
@@ -7223,14 +7270,14 @@
       <c r="K78" s="235">
         <v>110.74</v>
       </c>
-      <c r="L78" s="555"/>
+      <c r="L78" s="567"/>
       <c r="M78" s="487"/>
       <c r="N78" s="202">
         <f t="shared" si="1"/>
         <v>12263.347599999999</v>
       </c>
-      <c r="O78" s="558"/>
-      <c r="P78" s="561"/>
+      <c r="O78" s="570"/>
+      <c r="P78" s="573"/>
       <c r="Q78" s="214"/>
       <c r="R78" s="231"/>
       <c r="S78" s="76"/>
@@ -14396,11 +14443,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F300" s="525" t="s">
+      <c r="F300" s="587" t="s">
         <v>26</v>
       </c>
-      <c r="G300" s="525"/>
-      <c r="H300" s="526"/>
+      <c r="G300" s="587"/>
+      <c r="H300" s="588"/>
       <c r="I300" s="397">
         <f>SUM(I5:I299)</f>
         <v>1194.54</v>
@@ -14965,15 +15012,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="F300:H300"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
     <mergeCell ref="O64:O65"/>
     <mergeCell ref="P64:P65"/>
     <mergeCell ref="A76:A78"/>
@@ -14989,16 +15037,15 @@
     <mergeCell ref="G66:G69"/>
     <mergeCell ref="H66:H69"/>
     <mergeCell ref="L66:L69"/>
-    <mergeCell ref="F300:H300"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P66:P69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15009,10 +15056,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:X323"/>
+  <dimension ref="A1:X324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G61" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71"/>
+    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -15042,49 +15089,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="516" t="s">
+      <c r="A1" s="597" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="516"/>
-      <c r="C1" s="516"/>
-      <c r="D1" s="516"/>
-      <c r="E1" s="516"/>
-      <c r="F1" s="516"/>
-      <c r="G1" s="516"/>
-      <c r="H1" s="516"/>
-      <c r="I1" s="516"/>
-      <c r="J1" s="516"/>
+      <c r="B1" s="597"/>
+      <c r="C1" s="597"/>
+      <c r="D1" s="597"/>
+      <c r="E1" s="597"/>
+      <c r="F1" s="597"/>
+      <c r="G1" s="597"/>
+      <c r="H1" s="597"/>
+      <c r="I1" s="597"/>
+      <c r="J1" s="597"/>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="3"/>
-      <c r="S1" s="517" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="517"/>
+      <c r="S1" s="598" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="598"/>
       <c r="U1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="519" t="s">
+      <c r="W1" s="600" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="520"/>
+      <c r="X1" s="601"/>
     </row>
     <row r="2" spans="1:24" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="516"/>
-      <c r="B2" s="516"/>
-      <c r="C2" s="516"/>
-      <c r="D2" s="516"/>
-      <c r="E2" s="516"/>
-      <c r="F2" s="516"/>
-      <c r="G2" s="516"/>
-      <c r="H2" s="516"/>
-      <c r="I2" s="516"/>
-      <c r="J2" s="516"/>
+      <c r="A2" s="597"/>
+      <c r="B2" s="597"/>
+      <c r="C2" s="597"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="597"/>
+      <c r="F2" s="597"/>
+      <c r="G2" s="597"/>
+      <c r="H2" s="597"/>
+      <c r="I2" s="597"/>
+      <c r="J2" s="597"/>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
@@ -15092,8 +15139,8 @@
       <c r="O2" s="12"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="14"/>
-      <c r="S2" s="518"/>
-      <c r="T2" s="518"/>
+      <c r="S2" s="599"/>
+      <c r="T2" s="599"/>
       <c r="U2" s="15"/>
       <c r="V2" s="16"/>
       <c r="W2" s="17"/>
@@ -15138,10 +15185,10 @@
       <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="521" t="s">
+      <c r="O3" s="602" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="522"/>
+      <c r="P3" s="603"/>
       <c r="Q3" s="32" t="s">
         <v>17</v>
       </c>
@@ -15238,14 +15285,14 @@
       <c r="H6" s="67"/>
       <c r="I6" s="68"/>
       <c r="J6" s="46">
-        <f t="shared" ref="J6:J71" si="0">I6-F6</f>
+        <f t="shared" ref="J6:J72" si="0">I6-F6</f>
         <v>0</v>
       </c>
       <c r="K6" s="69"/>
       <c r="L6" s="82"/>
       <c r="M6" s="83"/>
       <c r="N6" s="50">
-        <f t="shared" ref="N6:N72" si="1">K6*I6</f>
+        <f t="shared" ref="N6:N73" si="1">K6*I6</f>
         <v>0</v>
       </c>
       <c r="O6" s="72"/>
@@ -15434,8 +15481,8 @@
         <v>0</v>
       </c>
       <c r="K12" s="69"/>
-      <c r="L12" s="523"/>
-      <c r="M12" s="524"/>
+      <c r="L12" s="604"/>
+      <c r="M12" s="605"/>
       <c r="N12" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17225,13 +17272,13 @@
       <c r="V63" s="207"/>
     </row>
     <row r="64" spans="1:24" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="529" t="s">
+      <c r="A64" s="591" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="613" t="s">
+      <c r="C64" s="639" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="209"/>
@@ -17239,10 +17286,10 @@
       <c r="F64" s="493">
         <v>127.38</v>
       </c>
-      <c r="G64" s="567">
+      <c r="G64" s="579">
         <v>45202</v>
       </c>
-      <c r="H64" s="533" t="s">
+      <c r="H64" s="595" t="s">
         <v>35</v>
       </c>
       <c r="I64" s="491">
@@ -17255,7 +17302,7 @@
       <c r="K64" s="235">
         <v>70</v>
       </c>
-      <c r="L64" s="616" t="s">
+      <c r="L64" s="642" t="s">
         <v>37</v>
       </c>
       <c r="M64" s="487"/>
@@ -17263,10 +17310,10 @@
         <f t="shared" si="1"/>
         <v>8916.6</v>
       </c>
-      <c r="O64" s="599" t="s">
+      <c r="O64" s="625" t="s">
         <v>36</v>
       </c>
-      <c r="P64" s="602">
+      <c r="P64" s="628">
         <v>45229</v>
       </c>
       <c r="Q64" s="212"/>
@@ -17277,18 +17324,18 @@
       <c r="V64" s="78"/>
     </row>
     <row r="65" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="612"/>
+      <c r="A65" s="638"/>
       <c r="B65" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="614"/>
+      <c r="C65" s="640"/>
       <c r="D65" s="213"/>
       <c r="E65" s="91"/>
       <c r="F65" s="493">
         <v>35.1</v>
       </c>
-      <c r="G65" s="568"/>
-      <c r="H65" s="534"/>
+      <c r="G65" s="580"/>
+      <c r="H65" s="596"/>
       <c r="I65" s="491">
         <v>35.1</v>
       </c>
@@ -17299,14 +17346,14 @@
       <c r="K65" s="235">
         <v>60</v>
       </c>
-      <c r="L65" s="617"/>
+      <c r="L65" s="643"/>
       <c r="M65" s="487"/>
       <c r="N65" s="50">
         <f t="shared" si="1"/>
         <v>2106</v>
       </c>
-      <c r="O65" s="600"/>
-      <c r="P65" s="603"/>
+      <c r="O65" s="626"/>
+      <c r="P65" s="629"/>
       <c r="Q65" s="214"/>
       <c r="R65" s="177"/>
       <c r="S65" s="76"/>
@@ -17315,18 +17362,18 @@
       <c r="V65" s="78"/>
     </row>
     <row r="66" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="612"/>
+      <c r="A66" s="638"/>
       <c r="B66" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="614"/>
+      <c r="C66" s="640"/>
       <c r="D66" s="213"/>
       <c r="E66" s="91"/>
       <c r="F66" s="493">
         <v>94.5</v>
       </c>
-      <c r="G66" s="568"/>
-      <c r="H66" s="534"/>
+      <c r="G66" s="580"/>
+      <c r="H66" s="596"/>
       <c r="I66" s="491">
         <v>94.5</v>
       </c>
@@ -17337,14 +17384,14 @@
       <c r="K66" s="235">
         <v>110</v>
       </c>
-      <c r="L66" s="617"/>
+      <c r="L66" s="643"/>
       <c r="M66" s="487"/>
       <c r="N66" s="50">
         <f t="shared" si="1"/>
         <v>10395</v>
       </c>
-      <c r="O66" s="600"/>
-      <c r="P66" s="603"/>
+      <c r="O66" s="626"/>
+      <c r="P66" s="629"/>
       <c r="Q66" s="214"/>
       <c r="R66" s="177"/>
       <c r="S66" s="76"/>
@@ -17353,18 +17400,18 @@
       <c r="V66" s="78"/>
     </row>
     <row r="67" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="530"/>
+      <c r="A67" s="592"/>
       <c r="B67" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="615"/>
+      <c r="C67" s="641"/>
       <c r="D67" s="213"/>
       <c r="E67" s="91"/>
       <c r="F67" s="494">
         <v>100.88</v>
       </c>
-      <c r="G67" s="569"/>
-      <c r="H67" s="534"/>
+      <c r="G67" s="581"/>
+      <c r="H67" s="596"/>
       <c r="I67" s="492">
         <v>100.88</v>
       </c>
@@ -17375,14 +17422,14 @@
       <c r="K67" s="235">
         <v>38</v>
       </c>
-      <c r="L67" s="618"/>
+      <c r="L67" s="644"/>
       <c r="M67" s="487"/>
       <c r="N67" s="50">
         <f t="shared" si="1"/>
         <v>3833.4399999999996</v>
       </c>
-      <c r="O67" s="601"/>
-      <c r="P67" s="604"/>
+      <c r="O67" s="627"/>
+      <c r="P67" s="630"/>
       <c r="Q67" s="214"/>
       <c r="R67" s="177"/>
       <c r="S67" s="76"/>
@@ -17391,13 +17438,13 @@
       <c r="V67" s="78"/>
     </row>
     <row r="68" spans="1:22" s="208" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="542" t="s">
+      <c r="A68" s="554" t="s">
         <v>30</v>
       </c>
       <c r="B68" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="605" t="s">
+      <c r="C68" s="631" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="217"/>
@@ -17405,8 +17452,8 @@
       <c r="F68" s="493">
         <v>43.58</v>
       </c>
-      <c r="G68" s="607"/>
-      <c r="H68" s="609"/>
+      <c r="G68" s="633"/>
+      <c r="H68" s="635"/>
       <c r="I68" s="491"/>
       <c r="J68" s="229">
         <f t="shared" si="0"/>
@@ -17429,18 +17476,18 @@
       <c r="V68" s="207"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A69" s="543"/>
+      <c r="A69" s="555"/>
       <c r="B69" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="606"/>
+      <c r="C69" s="632"/>
       <c r="D69" s="213"/>
       <c r="E69" s="91"/>
       <c r="F69" s="493">
         <v>32.32</v>
       </c>
-      <c r="G69" s="608"/>
-      <c r="H69" s="610"/>
+      <c r="G69" s="634"/>
+      <c r="H69" s="636"/>
       <c r="I69" s="491"/>
       <c r="J69" s="229">
         <f t="shared" si="0"/>
@@ -17457,28 +17504,28 @@
       <c r="P69" s="464"/>
       <c r="Q69" s="241"/>
       <c r="R69" s="221"/>
-      <c r="S69" s="619">
+      <c r="S69" s="614">
         <v>28000</v>
       </c>
-      <c r="T69" s="619" t="s">
+      <c r="T69" s="614" t="s">
         <v>24</v>
       </c>
       <c r="U69" s="222"/>
       <c r="V69" s="78"/>
     </row>
     <row r="70" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="543"/>
-      <c r="B70" s="636" t="s">
+      <c r="A70" s="555"/>
+      <c r="B70" s="521" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="606"/>
+      <c r="C70" s="632"/>
       <c r="D70" s="213"/>
       <c r="E70" s="91"/>
       <c r="F70" s="493">
         <v>110.74</v>
       </c>
-      <c r="G70" s="608"/>
-      <c r="H70" s="611"/>
+      <c r="G70" s="634"/>
+      <c r="H70" s="637"/>
       <c r="I70" s="491"/>
       <c r="J70" s="229">
         <f t="shared" si="0"/>
@@ -17495,177 +17542,189 @@
       <c r="P70" s="464"/>
       <c r="Q70" s="241"/>
       <c r="R70" s="221"/>
-      <c r="S70" s="620"/>
-      <c r="T70" s="620"/>
+      <c r="S70" s="615"/>
+      <c r="T70" s="615"/>
       <c r="U70" s="222"/>
       <c r="V70" s="78"/>
     </row>
-    <row r="71" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="642" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71" s="640" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="638"/>
-      <c r="D71" s="628"/>
-      <c r="E71" s="628"/>
-      <c r="F71" s="628"/>
-      <c r="G71" s="632">
-        <v>45230</v>
-      </c>
-      <c r="H71" s="634" t="s">
-        <v>57</v>
-      </c>
-      <c r="I71" s="483">
-        <v>51548.53</v>
+    <row r="71" spans="1:22" ht="48" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="516" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="645" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="650" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="646"/>
+      <c r="E71" s="647"/>
+      <c r="F71" s="648">
+        <v>3771.6</v>
+      </c>
+      <c r="G71" s="649">
+        <v>45219</v>
+      </c>
+      <c r="H71" s="651" t="s">
+        <v>61</v>
+      </c>
+      <c r="I71" s="491">
+        <v>3771.6</v>
       </c>
       <c r="J71" s="229">
         <f t="shared" si="0"/>
-        <v>51548.53</v>
+        <v>0</v>
       </c>
       <c r="K71" s="226">
-        <v>1</v>
-      </c>
-      <c r="L71" s="223"/>
+        <v>25</v>
+      </c>
+      <c r="L71" s="218"/>
       <c r="M71" s="219"/>
       <c r="N71" s="202">
         <f t="shared" si="1"/>
-        <v>51548.53</v>
-      </c>
-      <c r="O71" s="253" t="s">
-        <v>36</v>
-      </c>
+        <v>94290</v>
+      </c>
+      <c r="O71" s="253"/>
       <c r="P71" s="464"/>
       <c r="Q71" s="241"/>
       <c r="R71" s="221"/>
-      <c r="S71" s="620"/>
-      <c r="T71" s="620"/>
+      <c r="S71" s="615"/>
+      <c r="T71" s="615"/>
       <c r="U71" s="222"/>
       <c r="V71" s="78"/>
     </row>
-    <row r="72" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="643"/>
-      <c r="B72" s="641"/>
-      <c r="C72" s="639"/>
-      <c r="D72" s="629"/>
-      <c r="E72" s="629"/>
-      <c r="F72" s="629"/>
-      <c r="G72" s="633"/>
-      <c r="H72" s="635"/>
-      <c r="I72" s="483"/>
-      <c r="J72" s="229"/>
-      <c r="K72" s="226"/>
+    <row r="72" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="606" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="608" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="609"/>
+      <c r="D72" s="517"/>
+      <c r="E72" s="517"/>
+      <c r="F72" s="517"/>
+      <c r="G72" s="612">
+        <v>45230</v>
+      </c>
+      <c r="H72" s="623" t="s">
+        <v>57</v>
+      </c>
+      <c r="I72" s="483">
+        <v>51548.53</v>
+      </c>
+      <c r="J72" s="229">
+        <f t="shared" si="0"/>
+        <v>51548.53</v>
+      </c>
+      <c r="K72" s="226">
+        <v>1</v>
+      </c>
       <c r="L72" s="223"/>
       <c r="M72" s="219"/>
       <c r="N72" s="202">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O72" s="253"/>
+        <v>51548.53</v>
+      </c>
+      <c r="O72" s="253" t="s">
+        <v>36</v>
+      </c>
       <c r="P72" s="464"/>
       <c r="Q72" s="241"/>
       <c r="R72" s="221"/>
-      <c r="S72" s="620"/>
-      <c r="T72" s="620"/>
+      <c r="S72" s="615"/>
+      <c r="T72" s="615"/>
       <c r="U72" s="222"/>
       <c r="V72" s="78"/>
     </row>
-    <row r="73" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="489"/>
-      <c r="B73" s="637"/>
-      <c r="C73" s="490"/>
-      <c r="D73" s="213"/>
-      <c r="E73" s="91"/>
-      <c r="F73" s="483"/>
-      <c r="G73" s="630"/>
-      <c r="H73" s="483"/>
+    <row r="73" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="607"/>
+      <c r="B73" s="610"/>
+      <c r="C73" s="611"/>
+      <c r="D73" s="518"/>
+      <c r="E73" s="518"/>
+      <c r="F73" s="518"/>
+      <c r="G73" s="613"/>
+      <c r="H73" s="624"/>
       <c r="I73" s="483"/>
       <c r="J73" s="229"/>
       <c r="K73" s="226"/>
-      <c r="L73" s="225"/>
-      <c r="M73" s="226"/>
+      <c r="L73" s="223"/>
+      <c r="M73" s="219"/>
       <c r="N73" s="202">
-        <f t="shared" ref="N73:N137" si="3">K73*I73</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O73" s="253"/>
       <c r="P73" s="464"/>
       <c r="Q73" s="241"/>
       <c r="R73" s="221"/>
-      <c r="S73" s="620"/>
-      <c r="T73" s="620"/>
+      <c r="S73" s="615"/>
+      <c r="T73" s="615"/>
       <c r="U73" s="222"/>
       <c r="V73" s="78"/>
     </row>
-    <row r="74" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="247"/>
-      <c r="B74" s="216"/>
-      <c r="C74" s="460"/>
+    <row r="74" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="489"/>
+      <c r="B74" s="522"/>
+      <c r="C74" s="490"/>
       <c r="D74" s="213"/>
       <c r="E74" s="91"/>
       <c r="F74" s="483"/>
-      <c r="G74" s="631"/>
+      <c r="G74" s="519"/>
       <c r="H74" s="483"/>
       <c r="I74" s="483"/>
-      <c r="J74" s="229">
-        <f t="shared" ref="J74:J137" si="4">I74-F74</f>
-        <v>0</v>
-      </c>
+      <c r="J74" s="229"/>
       <c r="K74" s="226"/>
       <c r="L74" s="225"/>
       <c r="M74" s="226"/>
-      <c r="N74" s="463">
-        <f t="shared" si="3"/>
+      <c r="N74" s="202">
+        <f t="shared" ref="N74:N138" si="3">K74*I74</f>
         <v>0</v>
       </c>
       <c r="O74" s="253"/>
       <c r="P74" s="464"/>
       <c r="Q74" s="241"/>
       <c r="R74" s="221"/>
-      <c r="S74" s="621"/>
-      <c r="T74" s="621"/>
+      <c r="S74" s="615"/>
+      <c r="T74" s="615"/>
       <c r="U74" s="222"/>
       <c r="V74" s="78"/>
     </row>
-    <row r="75" spans="1:22" s="208" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="132"/>
+    <row r="75" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="247"/>
       <c r="B75" s="216"/>
-      <c r="C75" s="461"/>
-      <c r="D75" s="227"/>
-      <c r="E75" s="228"/>
+      <c r="C75" s="460"/>
+      <c r="D75" s="213"/>
+      <c r="E75" s="91"/>
       <c r="F75" s="483"/>
-      <c r="G75" s="484"/>
+      <c r="G75" s="520"/>
       <c r="H75" s="483"/>
       <c r="I75" s="483"/>
       <c r="J75" s="229">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J75:J138" si="4">I75-F75</f>
         <v>0</v>
       </c>
       <c r="K75" s="226"/>
-      <c r="L75" s="236"/>
+      <c r="L75" s="225"/>
       <c r="M75" s="226"/>
-      <c r="N75" s="230">
+      <c r="N75" s="463">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O75" s="253"/>
       <c r="P75" s="464"/>
       <c r="Q75" s="241"/>
-      <c r="R75" s="231"/>
-      <c r="S75" s="622">
-        <v>28000</v>
-      </c>
-      <c r="T75" s="625" t="s">
-        <v>25</v>
-      </c>
-      <c r="U75" s="232"/>
-      <c r="V75" s="207"/>
-    </row>
-    <row r="76" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R75" s="221"/>
+      <c r="S75" s="616"/>
+      <c r="T75" s="616"/>
+      <c r="U75" s="222"/>
+      <c r="V75" s="78"/>
+    </row>
+    <row r="76" spans="1:22" s="208" customFormat="1" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A76" s="132"/>
       <c r="B76" s="216"/>
-      <c r="C76" s="462"/>
+      <c r="C76" s="461"/>
       <c r="D76" s="227"/>
       <c r="E76" s="228"/>
       <c r="F76" s="483"/>
@@ -17677,20 +17736,24 @@
         <v>0</v>
       </c>
       <c r="K76" s="226"/>
-      <c r="L76" s="237"/>
+      <c r="L76" s="236"/>
       <c r="M76" s="226"/>
-      <c r="N76" s="50">
+      <c r="N76" s="230">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O76" s="253"/>
       <c r="P76" s="464"/>
       <c r="Q76" s="241"/>
-      <c r="R76" s="221"/>
-      <c r="S76" s="623"/>
-      <c r="T76" s="626"/>
-      <c r="U76" s="222"/>
-      <c r="V76" s="78"/>
+      <c r="R76" s="231"/>
+      <c r="S76" s="617">
+        <v>28000</v>
+      </c>
+      <c r="T76" s="620" t="s">
+        <v>25</v>
+      </c>
+      <c r="U76" s="232"/>
+      <c r="V76" s="207"/>
     </row>
     <row r="77" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="132"/>
@@ -17703,6 +17766,7 @@
       <c r="H77" s="483"/>
       <c r="I77" s="483"/>
       <c r="J77" s="229">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K77" s="226"/>
@@ -17716,12 +17780,12 @@
       <c r="P77" s="464"/>
       <c r="Q77" s="241"/>
       <c r="R77" s="221"/>
-      <c r="S77" s="623"/>
-      <c r="T77" s="626"/>
+      <c r="S77" s="618"/>
+      <c r="T77" s="621"/>
       <c r="U77" s="222"/>
       <c r="V77" s="78"/>
     </row>
-    <row r="78" spans="1:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="132"/>
       <c r="B78" s="216"/>
       <c r="C78" s="462"/>
@@ -17732,13 +17796,12 @@
       <c r="H78" s="483"/>
       <c r="I78" s="483"/>
       <c r="J78" s="229">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K78" s="226"/>
-      <c r="L78" s="225"/>
+      <c r="L78" s="237"/>
       <c r="M78" s="226"/>
-      <c r="N78" s="233">
+      <c r="N78" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -17746,15 +17809,15 @@
       <c r="P78" s="464"/>
       <c r="Q78" s="241"/>
       <c r="R78" s="221"/>
-      <c r="S78" s="624"/>
-      <c r="T78" s="627"/>
+      <c r="S78" s="618"/>
+      <c r="T78" s="621"/>
       <c r="U78" s="222"/>
       <c r="V78" s="78"/>
     </row>
-    <row r="79" spans="1:22" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="132"/>
-      <c r="B79" s="459"/>
-      <c r="C79" s="228"/>
+      <c r="B79" s="216"/>
+      <c r="C79" s="462"/>
       <c r="D79" s="227"/>
       <c r="E79" s="228"/>
       <c r="F79" s="483"/>
@@ -17768,20 +17831,20 @@
       <c r="K79" s="226"/>
       <c r="L79" s="225"/>
       <c r="M79" s="226"/>
-      <c r="N79" s="50">
+      <c r="N79" s="233">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O79" s="241"/>
+      <c r="O79" s="253"/>
       <c r="P79" s="464"/>
       <c r="Q79" s="241"/>
-      <c r="R79" s="177"/>
-      <c r="S79" s="234"/>
-      <c r="T79" s="234"/>
-      <c r="U79" s="77"/>
+      <c r="R79" s="221"/>
+      <c r="S79" s="619"/>
+      <c r="T79" s="622"/>
+      <c r="U79" s="222"/>
       <c r="V79" s="78"/>
     </row>
-    <row r="80" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A80" s="132"/>
       <c r="B80" s="459"/>
       <c r="C80" s="228"/>
@@ -17796,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="226"/>
-      <c r="L80" s="236"/>
+      <c r="L80" s="225"/>
       <c r="M80" s="226"/>
       <c r="N80" s="50">
         <f t="shared" si="3"/>
@@ -17806,12 +17869,12 @@
       <c r="P80" s="464"/>
       <c r="Q80" s="241"/>
       <c r="R80" s="177"/>
-      <c r="S80" s="76"/>
-      <c r="T80" s="76"/>
+      <c r="S80" s="234"/>
+      <c r="T80" s="234"/>
       <c r="U80" s="77"/>
       <c r="V80" s="78"/>
     </row>
-    <row r="81" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="132"/>
       <c r="B81" s="459"/>
       <c r="C81" s="228"/>
@@ -17825,8 +17888,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K81" s="251"/>
-      <c r="L81" s="237"/>
+      <c r="K81" s="226"/>
+      <c r="L81" s="236"/>
       <c r="M81" s="226"/>
       <c r="N81" s="50">
         <f t="shared" si="3"/>
@@ -17841,7 +17904,7 @@
       <c r="U81" s="77"/>
       <c r="V81" s="78"/>
     </row>
-    <row r="82" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="132"/>
       <c r="B82" s="459"/>
       <c r="C82" s="228"/>
@@ -17855,7 +17918,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K82" s="226"/>
+      <c r="K82" s="251"/>
       <c r="L82" s="237"/>
       <c r="M82" s="226"/>
       <c r="N82" s="50">
@@ -17871,11 +17934,11 @@
       <c r="U82" s="77"/>
       <c r="V82" s="78"/>
     </row>
-    <row r="83" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="162"/>
-      <c r="B83" s="227"/>
-      <c r="C83" s="238"/>
-      <c r="D83" s="228"/>
+    <row r="83" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="132"/>
+      <c r="B83" s="459"/>
+      <c r="C83" s="228"/>
+      <c r="D83" s="227"/>
       <c r="E83" s="228"/>
       <c r="F83" s="483"/>
       <c r="G83" s="484"/>
@@ -17887,13 +17950,13 @@
       </c>
       <c r="K83" s="226"/>
       <c r="L83" s="237"/>
-      <c r="M83" s="240"/>
+      <c r="M83" s="226"/>
       <c r="N83" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O83" s="241"/>
-      <c r="P83" s="244"/>
+      <c r="P83" s="464"/>
       <c r="Q83" s="241"/>
       <c r="R83" s="177"/>
       <c r="S83" s="76"/>
@@ -17904,7 +17967,7 @@
     <row r="84" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="162"/>
       <c r="B84" s="227"/>
-      <c r="C84" s="228"/>
+      <c r="C84" s="238"/>
       <c r="D84" s="228"/>
       <c r="E84" s="228"/>
       <c r="F84" s="483"/>
@@ -17916,7 +17979,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="226"/>
-      <c r="L84" s="225"/>
+      <c r="L84" s="237"/>
       <c r="M84" s="240"/>
       <c r="N84" s="50">
         <f t="shared" si="3"/>
@@ -17931,23 +17994,23 @@
       <c r="U84" s="77"/>
       <c r="V84" s="78"/>
     </row>
-    <row r="85" spans="1:22" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="245"/>
+    <row r="85" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="162"/>
       <c r="B85" s="227"/>
       <c r="C85" s="228"/>
       <c r="D85" s="228"/>
       <c r="E85" s="228"/>
-      <c r="F85" s="239"/>
-      <c r="G85" s="472"/>
-      <c r="H85" s="242"/>
-      <c r="I85" s="243"/>
+      <c r="F85" s="483"/>
+      <c r="G85" s="484"/>
+      <c r="H85" s="483"/>
+      <c r="I85" s="483"/>
       <c r="J85" s="229">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K85" s="226"/>
-      <c r="L85" s="246"/>
-      <c r="M85" s="226"/>
+      <c r="L85" s="225"/>
+      <c r="M85" s="240"/>
       <c r="N85" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -17961,22 +18024,22 @@
       <c r="U85" s="77"/>
       <c r="V85" s="78"/>
     </row>
-    <row r="86" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="247"/>
-      <c r="B86" s="228"/>
+    <row r="86" spans="1:22" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="245"/>
+      <c r="B86" s="227"/>
       <c r="C86" s="228"/>
       <c r="D86" s="228"/>
       <c r="E86" s="228"/>
       <c r="F86" s="239"/>
-      <c r="G86" s="473"/>
-      <c r="H86" s="248"/>
+      <c r="G86" s="472"/>
+      <c r="H86" s="242"/>
       <c r="I86" s="243"/>
       <c r="J86" s="229">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K86" s="226"/>
-      <c r="L86" s="249"/>
+      <c r="L86" s="246"/>
       <c r="M86" s="226"/>
       <c r="N86" s="50">
         <f t="shared" si="3"/>
@@ -17991,7 +18054,7 @@
       <c r="U86" s="77"/>
       <c r="V86" s="78"/>
     </row>
-    <row r="87" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="247"/>
       <c r="B87" s="228"/>
       <c r="C87" s="228"/>
@@ -18007,7 +18070,7 @@
       </c>
       <c r="K87" s="226"/>
       <c r="L87" s="249"/>
-      <c r="M87" s="250"/>
+      <c r="M87" s="226"/>
       <c r="N87" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -18021,7 +18084,7 @@
       <c r="U87" s="77"/>
       <c r="V87" s="78"/>
     </row>
-    <row r="88" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" ht="21" x14ac:dyDescent="0.35">
       <c r="A88" s="247"/>
       <c r="B88" s="228"/>
       <c r="C88" s="228"/>
@@ -18037,7 +18100,7 @@
       </c>
       <c r="K88" s="226"/>
       <c r="L88" s="249"/>
-      <c r="M88" s="251"/>
+      <c r="M88" s="250"/>
       <c r="N88" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -18051,45 +18114,45 @@
       <c r="U88" s="77"/>
       <c r="V88" s="78"/>
     </row>
-    <row r="89" spans="1:22" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="247"/>
       <c r="B89" s="228"/>
       <c r="C89" s="228"/>
       <c r="D89" s="228"/>
       <c r="E89" s="228"/>
       <c r="F89" s="239"/>
-      <c r="G89" s="472"/>
-      <c r="H89" s="252"/>
+      <c r="G89" s="473"/>
+      <c r="H89" s="248"/>
       <c r="I89" s="243"/>
       <c r="J89" s="229">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K89" s="226"/>
-      <c r="L89" s="246"/>
-      <c r="M89" s="226"/>
+      <c r="L89" s="249"/>
+      <c r="M89" s="251"/>
       <c r="N89" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O89" s="253"/>
+      <c r="O89" s="241"/>
       <c r="P89" s="244"/>
       <c r="Q89" s="241"/>
       <c r="R89" s="177"/>
-      <c r="S89" s="254"/>
-      <c r="T89" s="255"/>
+      <c r="S89" s="76"/>
+      <c r="T89" s="76"/>
       <c r="U89" s="77"/>
       <c r="V89" s="78"/>
     </row>
     <row r="90" spans="1:22" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="141"/>
+      <c r="A90" s="247"/>
       <c r="B90" s="228"/>
       <c r="C90" s="228"/>
       <c r="D90" s="228"/>
       <c r="E90" s="228"/>
       <c r="F90" s="239"/>
       <c r="G90" s="472"/>
-      <c r="H90" s="242"/>
+      <c r="H90" s="252"/>
       <c r="I90" s="243"/>
       <c r="J90" s="229">
         <f t="shared" si="4"/>
@@ -18151,12 +18214,12 @@
       <c r="G92" s="472"/>
       <c r="H92" s="242"/>
       <c r="I92" s="243"/>
-      <c r="J92" s="46">
+      <c r="J92" s="229">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K92" s="235"/>
-      <c r="L92" s="256"/>
+      <c r="K92" s="226"/>
+      <c r="L92" s="246"/>
       <c r="M92" s="226"/>
       <c r="N92" s="50">
         <f t="shared" si="3"/>
@@ -18201,7 +18264,7 @@
       <c r="U93" s="77"/>
       <c r="V93" s="78"/>
     </row>
-    <row r="94" spans="1:22" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A94" s="141"/>
       <c r="B94" s="228"/>
       <c r="C94" s="228"/>
@@ -18231,15 +18294,15 @@
       <c r="U94" s="77"/>
       <c r="V94" s="78"/>
     </row>
-    <row r="95" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="132"/>
+    <row r="95" spans="1:22" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="141"/>
       <c r="B95" s="228"/>
       <c r="C95" s="228"/>
       <c r="D95" s="228"/>
       <c r="E95" s="228"/>
       <c r="F95" s="239"/>
-      <c r="G95" s="473"/>
-      <c r="H95" s="248"/>
+      <c r="G95" s="472"/>
+      <c r="H95" s="242"/>
       <c r="I95" s="243"/>
       <c r="J95" s="46">
         <f t="shared" si="4"/>
@@ -18252,8 +18315,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O95" s="257"/>
-      <c r="P95" s="258"/>
+      <c r="O95" s="253"/>
+      <c r="P95" s="244"/>
       <c r="Q95" s="241"/>
       <c r="R95" s="177"/>
       <c r="S95" s="254"/>
@@ -18261,7 +18324,7 @@
       <c r="U95" s="77"/>
       <c r="V95" s="78"/>
     </row>
-    <row r="96" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="132"/>
       <c r="B96" s="228"/>
       <c r="C96" s="228"/>
@@ -18276,7 +18339,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="235"/>
-      <c r="L96" s="246"/>
+      <c r="L96" s="256"/>
       <c r="M96" s="226"/>
       <c r="N96" s="50">
         <f t="shared" si="3"/>
@@ -18291,15 +18354,15 @@
       <c r="U96" s="77"/>
       <c r="V96" s="78"/>
     </row>
-    <row r="97" spans="1:22" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="247"/>
+    <row r="97" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="132"/>
       <c r="B97" s="228"/>
       <c r="C97" s="228"/>
       <c r="D97" s="228"/>
       <c r="E97" s="228"/>
       <c r="F97" s="239"/>
-      <c r="G97" s="472"/>
-      <c r="H97" s="259"/>
+      <c r="G97" s="473"/>
+      <c r="H97" s="248"/>
       <c r="I97" s="243"/>
       <c r="J97" s="46">
         <f t="shared" si="4"/>
@@ -18313,7 +18376,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="257"/>
-      <c r="P97" s="260"/>
+      <c r="P97" s="258"/>
       <c r="Q97" s="241"/>
       <c r="R97" s="177"/>
       <c r="S97" s="254"/>
@@ -18321,29 +18384,29 @@
       <c r="U97" s="77"/>
       <c r="V97" s="78"/>
     </row>
-    <row r="98" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="247"/>
       <c r="B98" s="228"/>
       <c r="C98" s="228"/>
       <c r="D98" s="228"/>
       <c r="E98" s="228"/>
       <c r="F98" s="239"/>
-      <c r="G98" s="473"/>
-      <c r="H98" s="261"/>
+      <c r="G98" s="472"/>
+      <c r="H98" s="259"/>
       <c r="I98" s="243"/>
       <c r="J98" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K98" s="224"/>
-      <c r="L98" s="262"/>
+      <c r="K98" s="235"/>
+      <c r="L98" s="246"/>
       <c r="M98" s="226"/>
       <c r="N98" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O98" s="253"/>
-      <c r="P98" s="244"/>
+      <c r="O98" s="257"/>
+      <c r="P98" s="260"/>
       <c r="Q98" s="241"/>
       <c r="R98" s="177"/>
       <c r="S98" s="254"/>
@@ -18389,7 +18452,7 @@
       <c r="E100" s="228"/>
       <c r="F100" s="239"/>
       <c r="G100" s="473"/>
-      <c r="H100" s="248"/>
+      <c r="H100" s="261"/>
       <c r="I100" s="243"/>
       <c r="J100" s="46">
         <f t="shared" si="4"/>
@@ -18441,7 +18504,7 @@
       <c r="U101" s="77"/>
       <c r="V101" s="78"/>
     </row>
-    <row r="102" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="247"/>
       <c r="B102" s="228"/>
       <c r="C102" s="228"/>
@@ -18471,28 +18534,28 @@
       <c r="U102" s="77"/>
       <c r="V102" s="78"/>
     </row>
-    <row r="103" spans="1:22" ht="21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="247"/>
       <c r="B103" s="228"/>
       <c r="C103" s="228"/>
       <c r="D103" s="228"/>
       <c r="E103" s="228"/>
       <c r="F103" s="239"/>
-      <c r="G103" s="474"/>
-      <c r="H103" s="261"/>
+      <c r="G103" s="473"/>
+      <c r="H103" s="248"/>
       <c r="I103" s="243"/>
       <c r="J103" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K103" s="224"/>
-      <c r="L103" s="263"/>
+      <c r="L103" s="262"/>
       <c r="M103" s="226"/>
       <c r="N103" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O103" s="264"/>
+      <c r="O103" s="253"/>
       <c r="P103" s="244"/>
       <c r="Q103" s="241"/>
       <c r="R103" s="177"/>
@@ -18501,14 +18564,14 @@
       <c r="U103" s="77"/>
       <c r="V103" s="78"/>
     </row>
-    <row r="104" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="247"/>
       <c r="B104" s="228"/>
       <c r="C104" s="228"/>
       <c r="D104" s="228"/>
       <c r="E104" s="228"/>
       <c r="F104" s="239"/>
-      <c r="G104" s="473"/>
+      <c r="G104" s="474"/>
       <c r="H104" s="261"/>
       <c r="I104" s="243"/>
       <c r="J104" s="46">
@@ -18522,7 +18585,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O104" s="253"/>
+      <c r="O104" s="264"/>
       <c r="P104" s="244"/>
       <c r="Q104" s="241"/>
       <c r="R104" s="177"/>
@@ -18531,7 +18594,7 @@
       <c r="U104" s="77"/>
       <c r="V104" s="78"/>
     </row>
-    <row r="105" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="247"/>
       <c r="B105" s="228"/>
       <c r="C105" s="228"/>
@@ -18591,14 +18654,14 @@
       <c r="U106" s="77"/>
       <c r="V106" s="78"/>
     </row>
-    <row r="107" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="265"/>
+    <row r="107" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="247"/>
       <c r="B107" s="228"/>
       <c r="C107" s="228"/>
       <c r="D107" s="228"/>
       <c r="E107" s="228"/>
       <c r="F107" s="239"/>
-      <c r="G107" s="474"/>
+      <c r="G107" s="473"/>
       <c r="H107" s="261"/>
       <c r="I107" s="243"/>
       <c r="J107" s="46">
@@ -18606,13 +18669,13 @@
         <v>0</v>
       </c>
       <c r="K107" s="224"/>
-      <c r="L107" s="266"/>
+      <c r="L107" s="263"/>
       <c r="M107" s="226"/>
       <c r="N107" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O107" s="241"/>
+      <c r="O107" s="253"/>
       <c r="P107" s="244"/>
       <c r="Q107" s="241"/>
       <c r="R107" s="177"/>
@@ -18621,16 +18684,16 @@
       <c r="U107" s="77"/>
       <c r="V107" s="78"/>
     </row>
-    <row r="108" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="265"/>
-      <c r="B108" s="267"/>
-      <c r="C108" s="268"/>
-      <c r="D108" s="268"/>
-      <c r="E108" s="91"/>
-      <c r="F108" s="269"/>
-      <c r="G108" s="475"/>
-      <c r="H108" s="270"/>
-      <c r="I108" s="269"/>
+      <c r="B108" s="228"/>
+      <c r="C108" s="228"/>
+      <c r="D108" s="228"/>
+      <c r="E108" s="228"/>
+      <c r="F108" s="239"/>
+      <c r="G108" s="474"/>
+      <c r="H108" s="261"/>
+      <c r="I108" s="243"/>
       <c r="J108" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -18643,7 +18706,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="241"/>
-      <c r="P108" s="271"/>
+      <c r="P108" s="244"/>
       <c r="Q108" s="241"/>
       <c r="R108" s="177"/>
       <c r="S108" s="254"/>
@@ -18651,11 +18714,11 @@
       <c r="U108" s="77"/>
       <c r="V108" s="78"/>
     </row>
-    <row r="109" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="265"/>
       <c r="B109" s="267"/>
       <c r="C109" s="268"/>
-      <c r="D109" s="272"/>
+      <c r="D109" s="268"/>
       <c r="E109" s="91"/>
       <c r="F109" s="269"/>
       <c r="G109" s="475"/>
@@ -18665,7 +18728,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K109" s="235"/>
+      <c r="K109" s="224"/>
       <c r="L109" s="266"/>
       <c r="M109" s="226"/>
       <c r="N109" s="50">
@@ -18689,7 +18752,7 @@
       <c r="E110" s="91"/>
       <c r="F110" s="269"/>
       <c r="G110" s="475"/>
-      <c r="H110" s="273"/>
+      <c r="H110" s="270"/>
       <c r="I110" s="269"/>
       <c r="J110" s="46">
         <f t="shared" si="4"/>
@@ -18703,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="241"/>
-      <c r="P110" s="244"/>
+      <c r="P110" s="271"/>
       <c r="Q110" s="241"/>
       <c r="R110" s="177"/>
       <c r="S110" s="254"/>
@@ -18745,7 +18808,7 @@
       <c r="A112" s="265"/>
       <c r="B112" s="267"/>
       <c r="C112" s="268"/>
-      <c r="D112" s="274"/>
+      <c r="D112" s="272"/>
       <c r="E112" s="91"/>
       <c r="F112" s="269"/>
       <c r="G112" s="475"/>
@@ -18776,10 +18839,7 @@
       <c r="B113" s="267"/>
       <c r="C113" s="268"/>
       <c r="D113" s="274"/>
-      <c r="E113" s="91">
-        <f t="shared" ref="E113:E178" si="5">D113*F113</f>
-        <v>0</v>
-      </c>
+      <c r="E113" s="91"/>
       <c r="F113" s="269"/>
       <c r="G113" s="475"/>
       <c r="H113" s="273"/>
@@ -18788,9 +18848,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K113" s="275"/>
-      <c r="L113" s="276"/>
-      <c r="M113" s="127"/>
+      <c r="K113" s="235"/>
+      <c r="L113" s="266"/>
+      <c r="M113" s="226"/>
       <c r="N113" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -18805,17 +18865,17 @@
       <c r="V113" s="78"/>
     </row>
     <row r="114" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="151"/>
+      <c r="A114" s="265"/>
       <c r="B114" s="267"/>
-      <c r="C114" s="277"/>
-      <c r="D114" s="272"/>
+      <c r="C114" s="268"/>
+      <c r="D114" s="274"/>
       <c r="E114" s="91">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E114:E179" si="5">D114*F114</f>
         <v>0</v>
       </c>
       <c r="F114" s="269"/>
       <c r="G114" s="475"/>
-      <c r="H114" s="270"/>
+      <c r="H114" s="273"/>
       <c r="I114" s="269"/>
       <c r="J114" s="46">
         <f t="shared" si="4"/>
@@ -18829,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="241"/>
-      <c r="P114" s="271"/>
+      <c r="P114" s="244"/>
       <c r="Q114" s="241"/>
       <c r="R114" s="177"/>
       <c r="S114" s="254"/>
@@ -18840,7 +18900,7 @@
     <row r="115" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="151"/>
       <c r="B115" s="267"/>
-      <c r="C115" s="278"/>
+      <c r="C115" s="277"/>
       <c r="D115" s="272"/>
       <c r="E115" s="91">
         <f t="shared" si="5"/>
@@ -18873,8 +18933,8 @@
     <row r="116" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="151"/>
       <c r="B116" s="267"/>
-      <c r="C116" s="279"/>
-      <c r="D116" s="279"/>
+      <c r="C116" s="278"/>
+      <c r="D116" s="272"/>
       <c r="E116" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -18904,18 +18964,18 @@
       <c r="V116" s="78"/>
     </row>
     <row r="117" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="162"/>
-      <c r="B117" s="152"/>
+      <c r="A117" s="151"/>
+      <c r="B117" s="267"/>
       <c r="C117" s="279"/>
       <c r="D117" s="279"/>
       <c r="E117" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F117" s="136"/>
-      <c r="G117" s="469"/>
-      <c r="H117" s="135"/>
-      <c r="I117" s="136"/>
+      <c r="F117" s="269"/>
+      <c r="G117" s="475"/>
+      <c r="H117" s="270"/>
+      <c r="I117" s="269"/>
       <c r="J117" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -18936,10 +18996,10 @@
       <c r="U117" s="77"/>
       <c r="V117" s="78"/>
     </row>
-    <row r="118" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="162"/>
       <c r="B118" s="152"/>
-      <c r="C118" s="280"/>
+      <c r="C118" s="279"/>
       <c r="D118" s="279"/>
       <c r="E118" s="91">
         <f t="shared" si="5"/>
@@ -18954,8 +19014,8 @@
         <v>0</v>
       </c>
       <c r="K118" s="275"/>
-      <c r="L118" s="281"/>
-      <c r="M118" s="281"/>
+      <c r="L118" s="276"/>
+      <c r="M118" s="127"/>
       <c r="N118" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -18972,7 +19032,7 @@
     <row r="119" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A119" s="162"/>
       <c r="B119" s="152"/>
-      <c r="C119" s="282"/>
+      <c r="C119" s="280"/>
       <c r="D119" s="279"/>
       <c r="E119" s="91">
         <f t="shared" si="5"/>
@@ -19002,10 +19062,10 @@
       <c r="U119" s="77"/>
       <c r="V119" s="78"/>
     </row>
-    <row r="120" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="283"/>
+    <row r="120" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A120" s="162"/>
       <c r="B120" s="152"/>
-      <c r="C120" s="280"/>
+      <c r="C120" s="282"/>
       <c r="D120" s="279"/>
       <c r="E120" s="91">
         <f t="shared" si="5"/>
@@ -19020,8 +19080,8 @@
         <v>0</v>
       </c>
       <c r="K120" s="275"/>
-      <c r="L120" s="284"/>
-      <c r="M120" s="285"/>
+      <c r="L120" s="281"/>
+      <c r="M120" s="281"/>
       <c r="N120" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19035,10 +19095,10 @@
       <c r="U120" s="77"/>
       <c r="V120" s="78"/>
     </row>
-    <row r="121" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="286"/>
+    <row r="121" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="283"/>
       <c r="B121" s="152"/>
-      <c r="C121" s="282"/>
+      <c r="C121" s="280"/>
       <c r="D121" s="279"/>
       <c r="E121" s="91">
         <f t="shared" si="5"/>
@@ -19068,10 +19128,10 @@
       <c r="U121" s="77"/>
       <c r="V121" s="78"/>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A122" s="154"/>
+    <row r="122" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="286"/>
       <c r="B122" s="152"/>
-      <c r="C122" s="279"/>
+      <c r="C122" s="282"/>
       <c r="D122" s="279"/>
       <c r="E122" s="91">
         <f t="shared" si="5"/>
@@ -19086,8 +19146,8 @@
         <v>0</v>
       </c>
       <c r="K122" s="275"/>
-      <c r="L122" s="276"/>
-      <c r="M122" s="127"/>
+      <c r="L122" s="284"/>
+      <c r="M122" s="285"/>
       <c r="N122" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19151,9 +19211,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K124" s="127"/>
-      <c r="L124" s="210"/>
-      <c r="M124" s="211"/>
+      <c r="K124" s="275"/>
+      <c r="L124" s="276"/>
+      <c r="M124" s="127"/>
       <c r="N124" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19168,7 +19228,7 @@
       <c r="V124" s="78"/>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A125" s="162"/>
+      <c r="A125" s="154"/>
       <c r="B125" s="152"/>
       <c r="C125" s="279"/>
       <c r="D125" s="279"/>
@@ -19192,7 +19252,7 @@
         <v>0</v>
       </c>
       <c r="O125" s="241"/>
-      <c r="P125" s="244"/>
+      <c r="P125" s="271"/>
       <c r="Q125" s="241"/>
       <c r="R125" s="177"/>
       <c r="S125" s="254"/>
@@ -19234,7 +19294,7 @@
       <c r="V126" s="78"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A127" s="152"/>
+      <c r="A127" s="162"/>
       <c r="B127" s="152"/>
       <c r="C127" s="279"/>
       <c r="D127" s="279"/>
@@ -19258,7 +19318,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="241"/>
-      <c r="P127" s="271"/>
+      <c r="P127" s="244"/>
       <c r="Q127" s="241"/>
       <c r="R127" s="177"/>
       <c r="S127" s="254"/>
@@ -19284,8 +19344,8 @@
         <v>0</v>
       </c>
       <c r="K128" s="127"/>
-      <c r="L128" s="114"/>
-      <c r="M128" s="115"/>
+      <c r="L128" s="210"/>
+      <c r="M128" s="211"/>
       <c r="N128" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -19300,10 +19360,10 @@
       <c r="V128" s="78"/>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A129" s="155"/>
+      <c r="A129" s="152"/>
       <c r="B129" s="152"/>
-      <c r="C129" s="287"/>
-      <c r="D129" s="287"/>
+      <c r="C129" s="279"/>
+      <c r="D129" s="279"/>
       <c r="E129" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -19333,10 +19393,10 @@
       <c r="V129" s="78"/>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A130" s="265"/>
-      <c r="B130" s="162"/>
-      <c r="C130" s="280"/>
-      <c r="D130" s="280"/>
+      <c r="A130" s="155"/>
+      <c r="B130" s="152"/>
+      <c r="C130" s="287"/>
+      <c r="D130" s="287"/>
       <c r="E130" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -19368,8 +19428,8 @@
     <row r="131" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A131" s="265"/>
       <c r="B131" s="162"/>
-      <c r="C131" s="287"/>
-      <c r="D131" s="287"/>
+      <c r="C131" s="280"/>
+      <c r="D131" s="280"/>
       <c r="E131" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -19432,8 +19492,8 @@
       <c r="V132" s="78"/>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A133" s="154"/>
-      <c r="B133" s="152"/>
+      <c r="A133" s="265"/>
+      <c r="B133" s="162"/>
       <c r="C133" s="287"/>
       <c r="D133" s="287"/>
       <c r="E133" s="91">
@@ -19460,7 +19520,7 @@
       <c r="Q133" s="241"/>
       <c r="R133" s="177"/>
       <c r="S133" s="254"/>
-      <c r="T133" s="254"/>
+      <c r="T133" s="255"/>
       <c r="U133" s="77"/>
       <c r="V133" s="78"/>
     </row>
@@ -19531,8 +19591,8 @@
       <c r="V135" s="78"/>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A136" s="152"/>
-      <c r="B136" s="288"/>
+      <c r="A136" s="154"/>
+      <c r="B136" s="152"/>
       <c r="C136" s="287"/>
       <c r="D136" s="287"/>
       <c r="E136" s="91">
@@ -19559,13 +19619,13 @@
       <c r="Q136" s="241"/>
       <c r="R136" s="177"/>
       <c r="S136" s="254"/>
-      <c r="T136" s="255"/>
+      <c r="T136" s="254"/>
       <c r="U136" s="77"/>
       <c r="V136" s="78"/>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A137" s="152"/>
-      <c r="B137" s="152"/>
+      <c r="B137" s="288"/>
       <c r="C137" s="287"/>
       <c r="D137" s="287"/>
       <c r="E137" s="91">
@@ -19610,14 +19670,14 @@
       <c r="H138" s="135"/>
       <c r="I138" s="136"/>
       <c r="J138" s="46">
-        <f t="shared" ref="J138:J275" si="6">I138-F138</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K138" s="127"/>
       <c r="L138" s="114"/>
       <c r="M138" s="115"/>
       <c r="N138" s="50">
-        <f t="shared" ref="N138:N203" si="7">K138*I138</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O138" s="241"/>
@@ -19630,7 +19690,7 @@
       <c r="V138" s="78"/>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A139" s="265"/>
+      <c r="A139" s="152"/>
       <c r="B139" s="152"/>
       <c r="C139" s="287"/>
       <c r="D139" s="287"/>
@@ -19643,14 +19703,14 @@
       <c r="H139" s="135"/>
       <c r="I139" s="136"/>
       <c r="J139" s="46">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J139:J276" si="6">I139-F139</f>
         <v>0</v>
       </c>
       <c r="K139" s="127"/>
       <c r="L139" s="114"/>
       <c r="M139" s="115"/>
       <c r="N139" s="50">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N139:N204" si="7">K139*I139</f>
         <v>0</v>
       </c>
       <c r="O139" s="241"/>
@@ -19662,18 +19722,18 @@
       <c r="U139" s="77"/>
       <c r="V139" s="78"/>
     </row>
-    <row r="140" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="152"/>
-      <c r="B140" s="289"/>
-      <c r="C140" s="290"/>
-      <c r="D140" s="290"/>
-      <c r="E140" s="291">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A140" s="265"/>
+      <c r="B140" s="152"/>
+      <c r="C140" s="287"/>
+      <c r="D140" s="287"/>
+      <c r="E140" s="91">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F140" s="292"/>
-      <c r="G140" s="476"/>
-      <c r="H140" s="293"/>
+      <c r="F140" s="136"/>
+      <c r="G140" s="469"/>
+      <c r="H140" s="135"/>
       <c r="I140" s="136"/>
       <c r="J140" s="46">
         <f t="shared" si="6"/>
@@ -19695,18 +19755,18 @@
       <c r="U140" s="77"/>
       <c r="V140" s="78"/>
     </row>
-    <row r="141" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="152"/>
-      <c r="B141" s="152"/>
-      <c r="C141" s="287"/>
-      <c r="D141" s="287"/>
-      <c r="E141" s="65">
+      <c r="B141" s="289"/>
+      <c r="C141" s="290"/>
+      <c r="D141" s="290"/>
+      <c r="E141" s="291">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F141" s="136"/>
-      <c r="G141" s="469"/>
-      <c r="H141" s="135"/>
+      <c r="F141" s="292"/>
+      <c r="G141" s="476"/>
+      <c r="H141" s="293"/>
       <c r="I141" s="136"/>
       <c r="J141" s="46">
         <f t="shared" si="6"/>
@@ -19729,7 +19789,7 @@
       <c r="V141" s="78"/>
     </row>
     <row r="142" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="162"/>
+      <c r="A142" s="152"/>
       <c r="B142" s="152"/>
       <c r="C142" s="287"/>
       <c r="D142" s="287"/>
@@ -19828,7 +19888,7 @@
       <c r="V144" s="78"/>
     </row>
     <row r="145" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="152"/>
+      <c r="A145" s="162"/>
       <c r="B145" s="152"/>
       <c r="C145" s="287"/>
       <c r="D145" s="287"/>
@@ -19861,7 +19921,7 @@
       <c r="V145" s="78"/>
     </row>
     <row r="146" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="151"/>
+      <c r="A146" s="152"/>
       <c r="B146" s="152"/>
       <c r="C146" s="287"/>
       <c r="D146" s="287"/>
@@ -19894,7 +19954,7 @@
       <c r="V146" s="78"/>
     </row>
     <row r="147" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="154"/>
+      <c r="A147" s="151"/>
       <c r="B147" s="152"/>
       <c r="C147" s="287"/>
       <c r="D147" s="287"/>
@@ -19960,7 +20020,7 @@
       <c r="V148" s="78"/>
     </row>
     <row r="149" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="294"/>
+      <c r="A149" s="154"/>
       <c r="B149" s="152"/>
       <c r="C149" s="287"/>
       <c r="D149" s="287"/>
@@ -19993,7 +20053,7 @@
       <c r="V149" s="78"/>
     </row>
     <row r="150" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="295"/>
+      <c r="A150" s="294"/>
       <c r="B150" s="152"/>
       <c r="C150" s="287"/>
       <c r="D150" s="287"/>
@@ -20026,7 +20086,7 @@
       <c r="V150" s="78"/>
     </row>
     <row r="151" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="296"/>
+      <c r="A151" s="295"/>
       <c r="B151" s="152"/>
       <c r="C151" s="287"/>
       <c r="D151" s="287"/>
@@ -20061,8 +20121,8 @@
     <row r="152" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="296"/>
       <c r="B152" s="152"/>
-      <c r="C152" s="282"/>
-      <c r="D152" s="282"/>
+      <c r="C152" s="287"/>
+      <c r="D152" s="287"/>
       <c r="E152" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20092,17 +20152,17 @@
       <c r="V152" s="78"/>
     </row>
     <row r="153" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="295"/>
+      <c r="A153" s="296"/>
       <c r="B153" s="152"/>
-      <c r="C153" s="287"/>
-      <c r="D153" s="287"/>
+      <c r="C153" s="282"/>
+      <c r="D153" s="282"/>
       <c r="E153" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F153" s="136"/>
       <c r="G153" s="469"/>
-      <c r="H153" s="297"/>
+      <c r="H153" s="135"/>
       <c r="I153" s="136"/>
       <c r="J153" s="46">
         <f t="shared" si="6"/>
@@ -20127,8 +20187,8 @@
     <row r="154" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="295"/>
       <c r="B154" s="152"/>
-      <c r="C154" s="282"/>
-      <c r="D154" s="282"/>
+      <c r="C154" s="287"/>
+      <c r="D154" s="287"/>
       <c r="E154" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20160,8 +20220,8 @@
     <row r="155" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="295"/>
       <c r="B155" s="152"/>
-      <c r="C155" s="287"/>
-      <c r="D155" s="287"/>
+      <c r="C155" s="282"/>
+      <c r="D155" s="282"/>
       <c r="E155" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20193,8 +20253,8 @@
     <row r="156" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="295"/>
       <c r="B156" s="152"/>
-      <c r="C156" s="280"/>
-      <c r="D156" s="280"/>
+      <c r="C156" s="287"/>
+      <c r="D156" s="287"/>
       <c r="E156" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20224,17 +20284,17 @@
       <c r="V156" s="78"/>
     </row>
     <row r="157" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="152"/>
+      <c r="A157" s="295"/>
       <c r="B157" s="152"/>
-      <c r="C157" s="287"/>
-      <c r="D157" s="287"/>
+      <c r="C157" s="280"/>
+      <c r="D157" s="280"/>
       <c r="E157" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F157" s="136"/>
       <c r="G157" s="469"/>
-      <c r="H157" s="298"/>
+      <c r="H157" s="297"/>
       <c r="I157" s="136"/>
       <c r="J157" s="46">
         <f t="shared" si="6"/>
@@ -20250,7 +20310,7 @@
       <c r="O157" s="241"/>
       <c r="P157" s="271"/>
       <c r="Q157" s="241"/>
-      <c r="R157" s="299"/>
+      <c r="R157" s="177"/>
       <c r="S157" s="254"/>
       <c r="T157" s="255"/>
       <c r="U157" s="77"/>
@@ -20356,7 +20416,7 @@
       <c r="V160" s="78"/>
     </row>
     <row r="161" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="155"/>
+      <c r="A161" s="152"/>
       <c r="B161" s="152"/>
       <c r="C161" s="287"/>
       <c r="D161" s="287"/>
@@ -20366,7 +20426,7 @@
       </c>
       <c r="F161" s="136"/>
       <c r="G161" s="469"/>
-      <c r="H161" s="297"/>
+      <c r="H161" s="298"/>
       <c r="I161" s="136"/>
       <c r="J161" s="46">
         <f t="shared" si="6"/>
@@ -20379,9 +20439,9 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O161" s="110"/>
+      <c r="O161" s="241"/>
       <c r="P161" s="271"/>
-      <c r="Q161" s="300"/>
+      <c r="Q161" s="241"/>
       <c r="R161" s="299"/>
       <c r="S161" s="254"/>
       <c r="T161" s="255"/>
@@ -20389,7 +20449,7 @@
       <c r="V161" s="78"/>
     </row>
     <row r="162" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="152"/>
+      <c r="A162" s="155"/>
       <c r="B162" s="152"/>
       <c r="C162" s="287"/>
       <c r="D162" s="287"/>
@@ -20422,10 +20482,10 @@
       <c r="V162" s="78"/>
     </row>
     <row r="163" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="154"/>
+      <c r="A163" s="152"/>
       <c r="B163" s="152"/>
       <c r="C163" s="287"/>
-      <c r="D163" s="274"/>
+      <c r="D163" s="287"/>
       <c r="E163" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20445,8 +20505,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O163" s="137"/>
-      <c r="P163" s="172"/>
+      <c r="O163" s="110"/>
+      <c r="P163" s="271"/>
       <c r="Q163" s="300"/>
       <c r="R163" s="299"/>
       <c r="S163" s="254"/>
@@ -20587,10 +20647,10 @@
       <c r="V167" s="78"/>
     </row>
     <row r="168" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="295"/>
+      <c r="A168" s="154"/>
       <c r="B168" s="152"/>
       <c r="C168" s="287"/>
-      <c r="D168" s="287"/>
+      <c r="D168" s="274"/>
       <c r="E168" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20620,10 +20680,10 @@
       <c r="V168" s="78"/>
     </row>
     <row r="169" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="301"/>
+      <c r="A169" s="295"/>
       <c r="B169" s="152"/>
-      <c r="C169" s="282"/>
-      <c r="D169" s="302"/>
+      <c r="C169" s="287"/>
+      <c r="D169" s="287"/>
       <c r="E169" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20678,7 +20738,7 @@
       </c>
       <c r="O170" s="137"/>
       <c r="P170" s="172"/>
-      <c r="Q170" s="303"/>
+      <c r="Q170" s="300"/>
       <c r="R170" s="299"/>
       <c r="S170" s="254"/>
       <c r="T170" s="255"/>
@@ -20711,7 +20771,7 @@
       </c>
       <c r="O171" s="137"/>
       <c r="P171" s="172"/>
-      <c r="Q171" s="300"/>
+      <c r="Q171" s="303"/>
       <c r="R171" s="299"/>
       <c r="S171" s="254"/>
       <c r="T171" s="255"/>
@@ -20719,10 +20779,10 @@
       <c r="V171" s="78"/>
     </row>
     <row r="172" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="295"/>
+      <c r="A172" s="301"/>
       <c r="B172" s="152"/>
-      <c r="C172" s="287"/>
-      <c r="D172" s="287"/>
+      <c r="C172" s="282"/>
+      <c r="D172" s="302"/>
       <c r="E172" s="65">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20762,7 +20822,7 @@
       </c>
       <c r="F173" s="136"/>
       <c r="G173" s="469"/>
-      <c r="H173" s="298"/>
+      <c r="H173" s="297"/>
       <c r="I173" s="136"/>
       <c r="J173" s="46">
         <f t="shared" si="6"/>
@@ -20795,7 +20855,7 @@
       </c>
       <c r="F174" s="136"/>
       <c r="G174" s="469"/>
-      <c r="H174" s="304"/>
+      <c r="H174" s="298"/>
       <c r="I174" s="136"/>
       <c r="J174" s="46">
         <f t="shared" si="6"/>
@@ -20828,7 +20888,7 @@
       </c>
       <c r="F175" s="136"/>
       <c r="G175" s="469"/>
-      <c r="H175" s="297"/>
+      <c r="H175" s="304"/>
       <c r="I175" s="136"/>
       <c r="J175" s="46">
         <f t="shared" si="6"/>
@@ -20851,7 +20911,7 @@
       <c r="V175" s="78"/>
     </row>
     <row r="176" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="305"/>
+      <c r="A176" s="295"/>
       <c r="B176" s="152"/>
       <c r="C176" s="287"/>
       <c r="D176" s="287"/>
@@ -20861,7 +20921,7 @@
       </c>
       <c r="F176" s="136"/>
       <c r="G176" s="469"/>
-      <c r="H176" s="306"/>
+      <c r="H176" s="297"/>
       <c r="I176" s="136"/>
       <c r="J176" s="46">
         <f t="shared" si="6"/>
@@ -20874,17 +20934,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O176" s="307"/>
-      <c r="P176" s="308"/>
-      <c r="Q176" s="309"/>
-      <c r="R176" s="310"/>
+      <c r="O176" s="137"/>
+      <c r="P176" s="172"/>
+      <c r="Q176" s="300"/>
+      <c r="R176" s="299"/>
       <c r="S176" s="254"/>
       <c r="T176" s="255"/>
       <c r="U176" s="77"/>
       <c r="V176" s="78"/>
     </row>
     <row r="177" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="311"/>
+      <c r="A177" s="305"/>
       <c r="B177" s="152"/>
       <c r="C177" s="287"/>
       <c r="D177" s="287"/>
@@ -20893,8 +20953,8 @@
         <v>0</v>
       </c>
       <c r="F177" s="136"/>
-      <c r="G177" s="299"/>
-      <c r="H177" s="312"/>
+      <c r="G177" s="469"/>
+      <c r="H177" s="306"/>
       <c r="I177" s="136"/>
       <c r="J177" s="46">
         <f t="shared" si="6"/>
@@ -20907,17 +20967,17 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O177" s="313"/>
-      <c r="P177" s="177"/>
-      <c r="Q177" s="300"/>
-      <c r="R177" s="299"/>
+      <c r="O177" s="307"/>
+      <c r="P177" s="308"/>
+      <c r="Q177" s="309"/>
+      <c r="R177" s="310"/>
       <c r="S177" s="254"/>
       <c r="T177" s="255"/>
       <c r="U177" s="77"/>
       <c r="V177" s="78"/>
     </row>
     <row r="178" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="296"/>
+      <c r="A178" s="311"/>
       <c r="B178" s="152"/>
       <c r="C178" s="287"/>
       <c r="D178" s="287"/>
@@ -20926,8 +20986,8 @@
         <v>0</v>
       </c>
       <c r="F178" s="136"/>
-      <c r="G178" s="477"/>
-      <c r="H178" s="306"/>
+      <c r="G178" s="299"/>
+      <c r="H178" s="312"/>
       <c r="I178" s="136"/>
       <c r="J178" s="46">
         <f t="shared" si="6"/>
@@ -20955,42 +21015,40 @@
       <c r="C179" s="287"/>
       <c r="D179" s="287"/>
       <c r="E179" s="65">
-        <f t="shared" ref="E179:E248" si="8">D179*F179</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F179" s="136"/>
       <c r="G179" s="477"/>
-      <c r="H179" s="312"/>
+      <c r="H179" s="306"/>
       <c r="I179" s="136"/>
       <c r="J179" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K179" s="314"/>
+      <c r="K179" s="127"/>
       <c r="L179" s="114"/>
-      <c r="M179" s="115" t="s">
-        <v>22</v>
-      </c>
+      <c r="M179" s="115"/>
       <c r="N179" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O179" s="307"/>
-      <c r="P179" s="308"/>
-      <c r="Q179" s="309"/>
-      <c r="R179" s="310"/>
+      <c r="O179" s="313"/>
+      <c r="P179" s="177"/>
+      <c r="Q179" s="300"/>
+      <c r="R179" s="299"/>
       <c r="S179" s="254"/>
       <c r="T179" s="255"/>
       <c r="U179" s="77"/>
       <c r="V179" s="78"/>
     </row>
     <row r="180" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="295"/>
+      <c r="A180" s="296"/>
       <c r="B180" s="152"/>
       <c r="C180" s="287"/>
       <c r="D180" s="287"/>
       <c r="E180" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E180:E249" si="8">D180*F180</f>
         <v>0</v>
       </c>
       <c r="F180" s="136"/>
@@ -21003,88 +21061,90 @@
       </c>
       <c r="K180" s="314"/>
       <c r="L180" s="114"/>
-      <c r="M180" s="115"/>
+      <c r="M180" s="115" t="s">
+        <v>22</v>
+      </c>
       <c r="N180" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O180" s="313"/>
-      <c r="P180" s="177"/>
-      <c r="Q180" s="300"/>
-      <c r="R180" s="299"/>
+      <c r="O180" s="307"/>
+      <c r="P180" s="308"/>
+      <c r="Q180" s="309"/>
+      <c r="R180" s="310"/>
       <c r="S180" s="254"/>
       <c r="T180" s="255"/>
       <c r="U180" s="77"/>
       <c r="V180" s="78"/>
     </row>
     <row r="181" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="301"/>
+      <c r="A181" s="295"/>
       <c r="B181" s="152"/>
-      <c r="C181" s="315"/>
-      <c r="D181" s="315"/>
+      <c r="C181" s="287"/>
+      <c r="D181" s="287"/>
       <c r="E181" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F181" s="136"/>
       <c r="G181" s="477"/>
-      <c r="H181" s="316"/>
+      <c r="H181" s="312"/>
       <c r="I181" s="136"/>
       <c r="J181" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K181" s="127"/>
+      <c r="K181" s="314"/>
       <c r="L181" s="114"/>
       <c r="M181" s="115"/>
       <c r="N181" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O181" s="317"/>
-      <c r="P181" s="318"/>
-      <c r="Q181" s="176"/>
-      <c r="R181" s="177"/>
+      <c r="O181" s="313"/>
+      <c r="P181" s="177"/>
+      <c r="Q181" s="300"/>
+      <c r="R181" s="299"/>
       <c r="S181" s="254"/>
       <c r="T181" s="255"/>
       <c r="U181" s="77"/>
       <c r="V181" s="78"/>
     </row>
     <row r="182" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="319"/>
+      <c r="A182" s="301"/>
       <c r="B182" s="152"/>
-      <c r="C182" s="287"/>
-      <c r="D182" s="287"/>
+      <c r="C182" s="315"/>
+      <c r="D182" s="315"/>
       <c r="E182" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F182" s="136"/>
       <c r="G182" s="477"/>
-      <c r="H182" s="297"/>
+      <c r="H182" s="316"/>
       <c r="I182" s="136"/>
       <c r="J182" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K182" s="314"/>
-      <c r="L182" s="320"/>
-      <c r="M182" s="321"/>
+      <c r="K182" s="127"/>
+      <c r="L182" s="114"/>
+      <c r="M182" s="115"/>
       <c r="N182" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O182" s="317"/>
       <c r="P182" s="318"/>
-      <c r="Q182" s="309"/>
-      <c r="R182" s="310"/>
+      <c r="Q182" s="176"/>
+      <c r="R182" s="177"/>
       <c r="S182" s="254"/>
       <c r="T182" s="255"/>
       <c r="U182" s="77"/>
       <c r="V182" s="78"/>
     </row>
     <row r="183" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="295"/>
+      <c r="A183" s="319"/>
       <c r="B183" s="152"/>
       <c r="C183" s="287"/>
       <c r="D183" s="287"/>
@@ -21107,8 +21167,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O183" s="137"/>
-      <c r="P183" s="172"/>
+      <c r="O183" s="317"/>
+      <c r="P183" s="318"/>
       <c r="Q183" s="309"/>
       <c r="R183" s="310"/>
       <c r="S183" s="254"/>
@@ -21117,7 +21177,7 @@
       <c r="V183" s="78"/>
     </row>
     <row r="184" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="296"/>
+      <c r="A184" s="295"/>
       <c r="B184" s="152"/>
       <c r="C184" s="287"/>
       <c r="D184" s="287"/>
@@ -21127,21 +21187,21 @@
       </c>
       <c r="F184" s="136"/>
       <c r="G184" s="477"/>
-      <c r="H184" s="322"/>
+      <c r="H184" s="297"/>
       <c r="I184" s="136"/>
       <c r="J184" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K184" s="323"/>
+      <c r="K184" s="314"/>
       <c r="L184" s="320"/>
       <c r="M184" s="321"/>
       <c r="N184" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O184" s="313"/>
-      <c r="P184" s="177"/>
+      <c r="O184" s="137"/>
+      <c r="P184" s="172"/>
       <c r="Q184" s="309"/>
       <c r="R184" s="310"/>
       <c r="S184" s="254"/>
@@ -21160,21 +21220,21 @@
       </c>
       <c r="F185" s="136"/>
       <c r="G185" s="477"/>
-      <c r="H185" s="297"/>
+      <c r="H185" s="322"/>
       <c r="I185" s="136"/>
       <c r="J185" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K185" s="275"/>
-      <c r="L185" s="324"/>
-      <c r="M185" s="325"/>
+      <c r="K185" s="323"/>
+      <c r="L185" s="320"/>
+      <c r="M185" s="321"/>
       <c r="N185" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O185" s="307"/>
-      <c r="P185" s="308"/>
+      <c r="O185" s="313"/>
+      <c r="P185" s="177"/>
       <c r="Q185" s="309"/>
       <c r="R185" s="310"/>
       <c r="S185" s="254"/>
@@ -21183,7 +21243,7 @@
       <c r="V185" s="78"/>
     </row>
     <row r="186" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="326"/>
+      <c r="A186" s="296"/>
       <c r="B186" s="152"/>
       <c r="C186" s="287"/>
       <c r="D186" s="287"/>
@@ -21191,23 +21251,23 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F186" s="327"/>
+      <c r="F186" s="136"/>
       <c r="G186" s="477"/>
-      <c r="H186" s="304"/>
+      <c r="H186" s="297"/>
       <c r="I186" s="136"/>
       <c r="J186" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K186" s="275"/>
-      <c r="L186" s="328"/>
-      <c r="M186" s="329"/>
+      <c r="L186" s="324"/>
+      <c r="M186" s="325"/>
       <c r="N186" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O186" s="313"/>
-      <c r="P186" s="177"/>
+      <c r="O186" s="307"/>
+      <c r="P186" s="308"/>
       <c r="Q186" s="309"/>
       <c r="R186" s="310"/>
       <c r="S186" s="254"/>
@@ -21216,7 +21276,7 @@
       <c r="V186" s="78"/>
     </row>
     <row r="187" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="305"/>
+      <c r="A187" s="326"/>
       <c r="B187" s="152"/>
       <c r="C187" s="287"/>
       <c r="D187" s="287"/>
@@ -21224,23 +21284,23 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F187" s="136"/>
+      <c r="F187" s="327"/>
       <c r="G187" s="477"/>
-      <c r="H187" s="297"/>
+      <c r="H187" s="304"/>
       <c r="I187" s="136"/>
       <c r="J187" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K187" s="275"/>
-      <c r="L187" s="320"/>
-      <c r="M187" s="321"/>
+      <c r="L187" s="328"/>
+      <c r="M187" s="329"/>
       <c r="N187" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O187" s="307"/>
-      <c r="P187" s="308"/>
+      <c r="O187" s="313"/>
+      <c r="P187" s="177"/>
       <c r="Q187" s="309"/>
       <c r="R187" s="310"/>
       <c r="S187" s="254"/>
@@ -21249,7 +21309,7 @@
       <c r="V187" s="78"/>
     </row>
     <row r="188" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="296"/>
+      <c r="A188" s="305"/>
       <c r="B188" s="152"/>
       <c r="C188" s="287"/>
       <c r="D188" s="287"/>
@@ -21259,13 +21319,13 @@
       </c>
       <c r="F188" s="136"/>
       <c r="G188" s="477"/>
-      <c r="H188" s="330"/>
+      <c r="H188" s="297"/>
       <c r="I188" s="136"/>
       <c r="J188" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K188" s="127"/>
+      <c r="K188" s="275"/>
       <c r="L188" s="320"/>
       <c r="M188" s="321"/>
       <c r="N188" s="50">
@@ -21292,13 +21352,13 @@
       </c>
       <c r="F189" s="136"/>
       <c r="G189" s="477"/>
-      <c r="H189" s="306"/>
+      <c r="H189" s="330"/>
       <c r="I189" s="136"/>
       <c r="J189" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K189" s="275"/>
+      <c r="K189" s="127"/>
       <c r="L189" s="320"/>
       <c r="M189" s="321"/>
       <c r="N189" s="50">
@@ -21325,7 +21385,7 @@
       </c>
       <c r="F190" s="136"/>
       <c r="G190" s="477"/>
-      <c r="H190" s="331"/>
+      <c r="H190" s="306"/>
       <c r="I190" s="136"/>
       <c r="J190" s="46">
         <f t="shared" si="6"/>
@@ -21358,15 +21418,15 @@
       </c>
       <c r="F191" s="136"/>
       <c r="G191" s="477"/>
-      <c r="H191" s="332"/>
+      <c r="H191" s="331"/>
       <c r="I191" s="136"/>
       <c r="J191" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K191" s="275"/>
-      <c r="L191" s="333"/>
-      <c r="M191" s="334"/>
+      <c r="L191" s="320"/>
+      <c r="M191" s="321"/>
       <c r="N191" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -21391,7 +21451,7 @@
       </c>
       <c r="F192" s="136"/>
       <c r="G192" s="477"/>
-      <c r="H192" s="331"/>
+      <c r="H192" s="332"/>
       <c r="I192" s="136"/>
       <c r="J192" s="46">
         <f t="shared" si="6"/>
@@ -21463,9 +21523,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K194" s="127"/>
-      <c r="L194" s="114"/>
-      <c r="M194" s="115"/>
+      <c r="K194" s="275"/>
+      <c r="L194" s="333"/>
+      <c r="M194" s="334"/>
       <c r="N194" s="50">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -21482,8 +21542,8 @@
     <row r="195" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="296"/>
       <c r="B195" s="152"/>
-      <c r="C195" s="335"/>
-      <c r="D195" s="335"/>
+      <c r="C195" s="287"/>
+      <c r="D195" s="287"/>
       <c r="E195" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21503,10 +21563,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O195" s="313"/>
-      <c r="P195" s="177"/>
-      <c r="Q195" s="176"/>
-      <c r="R195" s="177"/>
+      <c r="O195" s="307"/>
+      <c r="P195" s="308"/>
+      <c r="Q195" s="309"/>
+      <c r="R195" s="310"/>
       <c r="S195" s="254"/>
       <c r="T195" s="255"/>
       <c r="U195" s="77"/>
@@ -21546,17 +21606,17 @@
       <c r="V196" s="78"/>
     </row>
     <row r="197" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="154"/>
+      <c r="A197" s="296"/>
       <c r="B197" s="152"/>
-      <c r="C197" s="315"/>
-      <c r="D197" s="315"/>
+      <c r="C197" s="335"/>
+      <c r="D197" s="335"/>
       <c r="E197" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F197" s="136"/>
       <c r="G197" s="477"/>
-      <c r="H197" s="316"/>
+      <c r="H197" s="331"/>
       <c r="I197" s="136"/>
       <c r="J197" s="46">
         <f t="shared" si="6"/>
@@ -21569,8 +21629,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O197" s="137"/>
-      <c r="P197" s="172"/>
+      <c r="O197" s="313"/>
+      <c r="P197" s="177"/>
       <c r="Q197" s="176"/>
       <c r="R197" s="177"/>
       <c r="S197" s="254"/>
@@ -21579,17 +21639,17 @@
       <c r="V197" s="78"/>
     </row>
     <row r="198" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="296"/>
+      <c r="A198" s="154"/>
       <c r="B198" s="152"/>
-      <c r="C198" s="336"/>
-      <c r="D198" s="336"/>
+      <c r="C198" s="315"/>
+      <c r="D198" s="315"/>
       <c r="E198" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F198" s="136"/>
       <c r="G198" s="477"/>
-      <c r="H198" s="135"/>
+      <c r="H198" s="316"/>
       <c r="I198" s="136"/>
       <c r="J198" s="46">
         <f t="shared" si="6"/>
@@ -21612,17 +21672,17 @@
       <c r="V198" s="78"/>
     </row>
     <row r="199" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="301"/>
+      <c r="A199" s="296"/>
       <c r="B199" s="152"/>
-      <c r="C199" s="315"/>
-      <c r="D199" s="315"/>
+      <c r="C199" s="336"/>
+      <c r="D199" s="336"/>
       <c r="E199" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F199" s="136"/>
       <c r="G199" s="477"/>
-      <c r="H199" s="316"/>
+      <c r="H199" s="135"/>
       <c r="I199" s="136"/>
       <c r="J199" s="46">
         <f t="shared" si="6"/>
@@ -21645,10 +21705,10 @@
       <c r="V199" s="78"/>
     </row>
     <row r="200" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="337"/>
-      <c r="B200" s="338"/>
-      <c r="C200" s="287"/>
-      <c r="D200" s="274"/>
+      <c r="A200" s="301"/>
+      <c r="B200" s="152"/>
+      <c r="C200" s="315"/>
+      <c r="D200" s="315"/>
       <c r="E200" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21668,8 +21728,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O200" s="317"/>
-      <c r="P200" s="318"/>
+      <c r="O200" s="137"/>
+      <c r="P200" s="172"/>
       <c r="Q200" s="176"/>
       <c r="R200" s="177"/>
       <c r="S200" s="254"/>
@@ -21678,10 +21738,10 @@
       <c r="V200" s="78"/>
     </row>
     <row r="201" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="301"/>
-      <c r="B201" s="152"/>
-      <c r="C201" s="339"/>
-      <c r="D201" s="340"/>
+      <c r="A201" s="337"/>
+      <c r="B201" s="338"/>
+      <c r="C201" s="287"/>
+      <c r="D201" s="274"/>
       <c r="E201" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21701,8 +21761,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O201" s="137"/>
-      <c r="P201" s="172"/>
+      <c r="O201" s="317"/>
+      <c r="P201" s="318"/>
       <c r="Q201" s="176"/>
       <c r="R201" s="177"/>
       <c r="S201" s="254"/>
@@ -21744,10 +21804,10 @@
       <c r="V202" s="78"/>
     </row>
     <row r="203" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="341"/>
+      <c r="A203" s="301"/>
       <c r="B203" s="152"/>
       <c r="C203" s="339"/>
-      <c r="D203" s="339"/>
+      <c r="D203" s="340"/>
       <c r="E203" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21777,16 +21837,16 @@
       <c r="V203" s="78"/>
     </row>
     <row r="204" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="301"/>
+      <c r="A204" s="341"/>
       <c r="B204" s="152"/>
-      <c r="C204" s="342"/>
-      <c r="D204" s="343"/>
+      <c r="C204" s="339"/>
+      <c r="D204" s="339"/>
       <c r="E204" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F204" s="136"/>
-      <c r="G204" s="478"/>
+      <c r="G204" s="477"/>
       <c r="H204" s="316"/>
       <c r="I204" s="136"/>
       <c r="J204" s="46">
@@ -21797,11 +21857,11 @@
       <c r="L204" s="114"/>
       <c r="M204" s="115"/>
       <c r="N204" s="50">
-        <f t="shared" ref="N204:N293" si="9">K204*I204</f>
-        <v>0</v>
-      </c>
-      <c r="O204" s="344"/>
-      <c r="P204" s="345"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O204" s="137"/>
+      <c r="P204" s="172"/>
       <c r="Q204" s="176"/>
       <c r="R204" s="177"/>
       <c r="S204" s="254"/>
@@ -21819,7 +21879,7 @@
         <v>0</v>
       </c>
       <c r="F205" s="136"/>
-      <c r="G205" s="469"/>
+      <c r="G205" s="478"/>
       <c r="H205" s="316"/>
       <c r="I205" s="136"/>
       <c r="J205" s="46">
@@ -21830,7 +21890,7 @@
       <c r="L205" s="114"/>
       <c r="M205" s="115"/>
       <c r="N205" s="50">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N205:N294" si="9">K205*I205</f>
         <v>0</v>
       </c>
       <c r="O205" s="344"/>
@@ -21844,39 +21904,42 @@
     </row>
     <row r="206" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="301"/>
-      <c r="B206" s="295"/>
-      <c r="C206" s="277"/>
-      <c r="D206" s="346"/>
+      <c r="B206" s="152"/>
+      <c r="C206" s="342"/>
+      <c r="D206" s="343"/>
       <c r="E206" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F206" s="347"/>
-      <c r="G206" s="477"/>
-      <c r="H206" s="348"/>
-      <c r="I206" s="347"/>
+      <c r="F206" s="136"/>
+      <c r="G206" s="469"/>
+      <c r="H206" s="316"/>
+      <c r="I206" s="136"/>
       <c r="J206" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="K206" s="127"/>
+      <c r="L206" s="114"/>
+      <c r="M206" s="115"/>
       <c r="N206" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O206" s="351"/>
-      <c r="P206" s="177"/>
-      <c r="Q206" s="352"/>
-      <c r="R206" s="353"/>
-      <c r="S206" s="354"/>
-      <c r="T206" s="355"/>
-      <c r="U206" s="356"/>
-      <c r="V206" s="357"/>
+      <c r="O206" s="344"/>
+      <c r="P206" s="345"/>
+      <c r="Q206" s="176"/>
+      <c r="R206" s="177"/>
+      <c r="S206" s="254"/>
+      <c r="T206" s="255"/>
+      <c r="U206" s="77"/>
+      <c r="V206" s="78"/>
     </row>
     <row r="207" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="301"/>
-      <c r="B207" s="152"/>
-      <c r="C207" s="339"/>
-      <c r="D207" s="339"/>
+      <c r="B207" s="295"/>
+      <c r="C207" s="277"/>
+      <c r="D207" s="346"/>
       <c r="E207" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -21911,29 +21974,26 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F208" s="136"/>
+      <c r="F208" s="347"/>
       <c r="G208" s="477"/>
-      <c r="H208" s="316"/>
-      <c r="I208" s="136"/>
+      <c r="H208" s="348"/>
+      <c r="I208" s="347"/>
       <c r="J208" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K208" s="127"/>
-      <c r="L208" s="114"/>
-      <c r="M208" s="115"/>
       <c r="N208" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O208" s="137"/>
-      <c r="P208" s="172"/>
-      <c r="Q208" s="176"/>
-      <c r="R208" s="177"/>
-      <c r="S208" s="254"/>
-      <c r="T208" s="255"/>
-      <c r="U208" s="77"/>
-      <c r="V208" s="78"/>
+      <c r="O208" s="351"/>
+      <c r="P208" s="177"/>
+      <c r="Q208" s="352"/>
+      <c r="R208" s="353"/>
+      <c r="S208" s="354"/>
+      <c r="T208" s="355"/>
+      <c r="U208" s="356"/>
+      <c r="V208" s="357"/>
     </row>
     <row r="209" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="301"/>
@@ -21971,14 +22031,14 @@
     <row r="210" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="301"/>
       <c r="B210" s="152"/>
-      <c r="C210" s="358"/>
-      <c r="D210" s="359"/>
+      <c r="C210" s="339"/>
+      <c r="D210" s="339"/>
       <c r="E210" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F210" s="136"/>
-      <c r="G210" s="478"/>
+      <c r="G210" s="477"/>
       <c r="H210" s="316"/>
       <c r="I210" s="136"/>
       <c r="J210" s="46">
@@ -22069,9 +22129,9 @@
     </row>
     <row r="213" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="301"/>
-      <c r="B213" s="295"/>
-      <c r="C213" s="360"/>
-      <c r="D213" s="360"/>
+      <c r="B213" s="152"/>
+      <c r="C213" s="358"/>
+      <c r="D213" s="359"/>
       <c r="E213" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22102,9 +22162,9 @@
     </row>
     <row r="214" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="301"/>
-      <c r="B214" s="152"/>
-      <c r="C214" s="358"/>
-      <c r="D214" s="359"/>
+      <c r="B214" s="295"/>
+      <c r="C214" s="360"/>
+      <c r="D214" s="360"/>
       <c r="E214" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22136,14 +22196,14 @@
     <row r="215" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="301"/>
       <c r="B215" s="152"/>
-      <c r="C215" s="336"/>
-      <c r="D215" s="336"/>
+      <c r="C215" s="358"/>
+      <c r="D215" s="359"/>
       <c r="E215" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F215" s="136"/>
-      <c r="G215" s="477"/>
+      <c r="G215" s="478"/>
       <c r="H215" s="316"/>
       <c r="I215" s="136"/>
       <c r="J215" s="46">
@@ -22266,10 +22326,10 @@
       <c r="V218" s="78"/>
     </row>
     <row r="219" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="341"/>
-      <c r="B219" s="295"/>
-      <c r="C219" s="339"/>
-      <c r="D219" s="339"/>
+      <c r="A219" s="301"/>
+      <c r="B219" s="152"/>
+      <c r="C219" s="336"/>
+      <c r="D219" s="336"/>
       <c r="E219" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -22299,16 +22359,16 @@
       <c r="V219" s="78"/>
     </row>
     <row r="220" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="361"/>
-      <c r="B220" s="152"/>
-      <c r="C220" s="342"/>
-      <c r="D220" s="343"/>
+      <c r="A220" s="341"/>
+      <c r="B220" s="295"/>
+      <c r="C220" s="339"/>
+      <c r="D220" s="339"/>
       <c r="E220" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F220" s="136"/>
-      <c r="G220" s="469"/>
+      <c r="G220" s="477"/>
       <c r="H220" s="316"/>
       <c r="I220" s="136"/>
       <c r="J220" s="46">
@@ -22322,8 +22382,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O220" s="344"/>
-      <c r="P220" s="345"/>
+      <c r="O220" s="137"/>
+      <c r="P220" s="172"/>
       <c r="Q220" s="176"/>
       <c r="R220" s="177"/>
       <c r="S220" s="254"/>
@@ -22332,16 +22392,16 @@
       <c r="V220" s="78"/>
     </row>
     <row r="221" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="301"/>
-      <c r="B221" s="295"/>
-      <c r="C221" s="362"/>
-      <c r="D221" s="363"/>
+      <c r="A221" s="361"/>
+      <c r="B221" s="152"/>
+      <c r="C221" s="342"/>
+      <c r="D221" s="343"/>
       <c r="E221" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F221" s="136"/>
-      <c r="G221" s="477"/>
+      <c r="G221" s="469"/>
       <c r="H221" s="316"/>
       <c r="I221" s="136"/>
       <c r="J221" s="46">
@@ -22355,8 +22415,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O221" s="137"/>
-      <c r="P221" s="172"/>
+      <c r="O221" s="344"/>
+      <c r="P221" s="345"/>
       <c r="Q221" s="176"/>
       <c r="R221" s="177"/>
       <c r="S221" s="254"/>
@@ -22439,8 +22499,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F224" s="364"/>
-      <c r="G224" s="478"/>
+      <c r="F224" s="136"/>
+      <c r="G224" s="477"/>
       <c r="H224" s="316"/>
       <c r="I224" s="136"/>
       <c r="J224" s="46">
@@ -22670,7 +22730,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F231" s="136"/>
+      <c r="F231" s="364"/>
       <c r="G231" s="478"/>
       <c r="H231" s="316"/>
       <c r="I231" s="136"/>
@@ -22697,14 +22757,14 @@
     <row r="232" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="301"/>
       <c r="B232" s="295"/>
-      <c r="C232" s="336"/>
-      <c r="D232" s="336"/>
+      <c r="C232" s="362"/>
+      <c r="D232" s="363"/>
       <c r="E232" s="65">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F232" s="136"/>
-      <c r="G232" s="477"/>
+      <c r="G232" s="478"/>
       <c r="H232" s="316"/>
       <c r="I232" s="136"/>
       <c r="J232" s="46">
@@ -22959,8 +23019,8 @@
       <c r="V239" s="78"/>
     </row>
     <row r="240" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="295"/>
-      <c r="B240" s="346"/>
+      <c r="A240" s="301"/>
+      <c r="B240" s="295"/>
       <c r="C240" s="336"/>
       <c r="D240" s="336"/>
       <c r="E240" s="65">
@@ -22968,8 +23028,8 @@
         <v>0</v>
       </c>
       <c r="F240" s="136"/>
-      <c r="G240" s="469"/>
-      <c r="H240" s="135"/>
+      <c r="G240" s="477"/>
+      <c r="H240" s="316"/>
       <c r="I240" s="136"/>
       <c r="J240" s="46">
         <f t="shared" si="6"/>
@@ -22992,8 +23052,8 @@
       <c r="V240" s="78"/>
     </row>
     <row r="241" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="361"/>
-      <c r="B241" s="295"/>
+      <c r="A241" s="295"/>
+      <c r="B241" s="346"/>
       <c r="C241" s="336"/>
       <c r="D241" s="336"/>
       <c r="E241" s="65">
@@ -23001,8 +23061,8 @@
         <v>0</v>
       </c>
       <c r="F241" s="136"/>
-      <c r="G241" s="477"/>
-      <c r="H241" s="316"/>
+      <c r="G241" s="469"/>
+      <c r="H241" s="135"/>
       <c r="I241" s="136"/>
       <c r="J241" s="46">
         <f t="shared" si="6"/>
@@ -23124,7 +23184,7 @@
       <c r="V244" s="78"/>
     </row>
     <row r="245" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="365"/>
+      <c r="A245" s="361"/>
       <c r="B245" s="295"/>
       <c r="C245" s="336"/>
       <c r="D245" s="336"/>
@@ -23157,7 +23217,7 @@
       <c r="V245" s="78"/>
     </row>
     <row r="246" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="301"/>
+      <c r="A246" s="365"/>
       <c r="B246" s="295"/>
       <c r="C246" s="336"/>
       <c r="D246" s="336"/>
@@ -23261,7 +23321,7 @@
       <c r="C249" s="336"/>
       <c r="D249" s="336"/>
       <c r="E249" s="65">
-        <f t="shared" ref="E249:E293" si="10">D249*F249</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F249" s="136"/>
@@ -23294,7 +23354,7 @@
       <c r="C250" s="336"/>
       <c r="D250" s="336"/>
       <c r="E250" s="65">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E250:E294" si="10">D250*F250</f>
         <v>0</v>
       </c>
       <c r="F250" s="136"/>
@@ -23456,8 +23516,8 @@
     <row r="255" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="301"/>
       <c r="B255" s="295"/>
-      <c r="C255" s="358"/>
-      <c r="D255" s="358"/>
+      <c r="C255" s="336"/>
+      <c r="D255" s="336"/>
       <c r="E255" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -23489,8 +23549,8 @@
     <row r="256" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="301"/>
       <c r="B256" s="295"/>
-      <c r="C256" s="336"/>
-      <c r="D256" s="336"/>
+      <c r="C256" s="358"/>
+      <c r="D256" s="358"/>
       <c r="E256" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -23522,8 +23582,8 @@
     <row r="257" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="301"/>
       <c r="B257" s="295"/>
-      <c r="C257" s="358"/>
-      <c r="D257" s="359"/>
+      <c r="C257" s="336"/>
+      <c r="D257" s="336"/>
       <c r="E257" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -23555,8 +23615,8 @@
     <row r="258" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="301"/>
       <c r="B258" s="295"/>
-      <c r="C258" s="360"/>
-      <c r="D258" s="360"/>
+      <c r="C258" s="358"/>
+      <c r="D258" s="359"/>
       <c r="E258" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -23621,8 +23681,8 @@
     <row r="260" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="301"/>
       <c r="B260" s="295"/>
-      <c r="C260" s="358"/>
-      <c r="D260" s="359"/>
+      <c r="C260" s="360"/>
+      <c r="D260" s="360"/>
       <c r="E260" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -23654,8 +23714,8 @@
     <row r="261" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="301"/>
       <c r="B261" s="295"/>
-      <c r="C261" s="339"/>
-      <c r="D261" s="339"/>
+      <c r="C261" s="358"/>
+      <c r="D261" s="359"/>
       <c r="E261" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -23687,8 +23747,8 @@
     <row r="262" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="301"/>
       <c r="B262" s="295"/>
-      <c r="C262" s="287"/>
-      <c r="D262" s="287"/>
+      <c r="C262" s="339"/>
+      <c r="D262" s="339"/>
       <c r="E262" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -23718,10 +23778,10 @@
       <c r="V262" s="78"/>
     </row>
     <row r="263" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="296"/>
+      <c r="A263" s="301"/>
       <c r="B263" s="295"/>
-      <c r="C263" s="315"/>
-      <c r="D263" s="315"/>
+      <c r="C263" s="287"/>
+      <c r="D263" s="287"/>
       <c r="E263" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -23751,7 +23811,7 @@
       <c r="V263" s="78"/>
     </row>
     <row r="264" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="301"/>
+      <c r="A264" s="296"/>
       <c r="B264" s="295"/>
       <c r="C264" s="315"/>
       <c r="D264" s="315"/>
@@ -23817,8 +23877,8 @@
       <c r="V265" s="78"/>
     </row>
     <row r="266" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A266" s="366"/>
-      <c r="B266" s="367"/>
+      <c r="A266" s="301"/>
+      <c r="B266" s="295"/>
       <c r="C266" s="315"/>
       <c r="D266" s="315"/>
       <c r="E266" s="65">
@@ -23850,7 +23910,7 @@
       <c r="V266" s="78"/>
     </row>
     <row r="267" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A267" s="296"/>
+      <c r="A267" s="366"/>
       <c r="B267" s="367"/>
       <c r="C267" s="315"/>
       <c r="D267" s="315"/>
@@ -23860,7 +23920,7 @@
       </c>
       <c r="F267" s="136"/>
       <c r="G267" s="477"/>
-      <c r="H267" s="135"/>
+      <c r="H267" s="316"/>
       <c r="I267" s="136"/>
       <c r="J267" s="46">
         <f t="shared" si="6"/>
@@ -23893,7 +23953,7 @@
       </c>
       <c r="F268" s="136"/>
       <c r="G268" s="477"/>
-      <c r="H268" s="316"/>
+      <c r="H268" s="135"/>
       <c r="I268" s="136"/>
       <c r="J268" s="46">
         <f t="shared" si="6"/>
@@ -23916,10 +23976,10 @@
       <c r="V268" s="78"/>
     </row>
     <row r="269" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A269" s="301"/>
+      <c r="A269" s="296"/>
       <c r="B269" s="367"/>
-      <c r="C269" s="287"/>
-      <c r="D269" s="274"/>
+      <c r="C269" s="315"/>
+      <c r="D269" s="315"/>
       <c r="E269" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -23982,17 +24042,17 @@
       <c r="V270" s="78"/>
     </row>
     <row r="271" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A271" s="296"/>
+      <c r="A271" s="301"/>
       <c r="B271" s="367"/>
-      <c r="C271" s="335"/>
-      <c r="D271" s="335"/>
+      <c r="C271" s="287"/>
+      <c r="D271" s="274"/>
       <c r="E271" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F271" s="136"/>
       <c r="G271" s="477"/>
-      <c r="H271" s="331"/>
+      <c r="H271" s="316"/>
       <c r="I271" s="136"/>
       <c r="J271" s="46">
         <f t="shared" si="6"/>
@@ -24005,8 +24065,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O271" s="313"/>
-      <c r="P271" s="177"/>
+      <c r="O271" s="137"/>
+      <c r="P271" s="172"/>
       <c r="Q271" s="176"/>
       <c r="R271" s="177"/>
       <c r="S271" s="254"/>
@@ -24017,8 +24077,8 @@
     <row r="272" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="296"/>
       <c r="B272" s="367"/>
-      <c r="C272" s="279"/>
-      <c r="D272" s="272"/>
+      <c r="C272" s="335"/>
+      <c r="D272" s="335"/>
       <c r="E272" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -24033,7 +24093,7 @@
       </c>
       <c r="K272" s="127"/>
       <c r="L272" s="114"/>
-      <c r="M272" s="368"/>
+      <c r="M272" s="115"/>
       <c r="N272" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -24049,17 +24109,17 @@
     </row>
     <row r="273" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="296"/>
-      <c r="B273" s="369"/>
-      <c r="C273" s="282"/>
-      <c r="D273" s="302"/>
+      <c r="B273" s="367"/>
+      <c r="C273" s="279"/>
+      <c r="D273" s="272"/>
       <c r="E273" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F273" s="370"/>
-      <c r="G273" s="479"/>
-      <c r="H273" s="371"/>
-      <c r="I273" s="134"/>
+      <c r="F273" s="136"/>
+      <c r="G273" s="477"/>
+      <c r="H273" s="331"/>
+      <c r="I273" s="136"/>
       <c r="J273" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24115,7 +24175,7 @@
     </row>
     <row r="275" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="296"/>
-      <c r="B275" s="372"/>
+      <c r="B275" s="369"/>
       <c r="C275" s="282"/>
       <c r="D275" s="302"/>
       <c r="E275" s="65">
@@ -24137,8 +24197,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O275" s="137"/>
-      <c r="P275" s="172"/>
+      <c r="O275" s="313"/>
+      <c r="P275" s="177"/>
       <c r="Q275" s="176"/>
       <c r="R275" s="177"/>
       <c r="S275" s="254"/>
@@ -24160,7 +24220,7 @@
       <c r="H276" s="371"/>
       <c r="I276" s="134"/>
       <c r="J276" s="46">
-        <f t="shared" ref="J276:J289" si="11">I276-F276</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K276" s="127"/>
@@ -24193,7 +24253,7 @@
       <c r="H277" s="371"/>
       <c r="I277" s="134"/>
       <c r="J277" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J277:J290" si="11">I277-F277</f>
         <v>0</v>
       </c>
       <c r="K277" s="127"/>
@@ -24214,30 +24274,30 @@
     </row>
     <row r="278" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278" s="296"/>
-      <c r="B278" s="295"/>
-      <c r="C278" s="373"/>
-      <c r="D278" s="374"/>
+      <c r="B278" s="372"/>
+      <c r="C278" s="282"/>
+      <c r="D278" s="302"/>
       <c r="E278" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F278" s="292"/>
-      <c r="G278" s="480"/>
-      <c r="H278" s="375"/>
-      <c r="I278" s="136"/>
+      <c r="F278" s="370"/>
+      <c r="G278" s="479"/>
+      <c r="H278" s="371"/>
+      <c r="I278" s="134"/>
       <c r="J278" s="46">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K278" s="127"/>
       <c r="L278" s="114"/>
-      <c r="M278" s="376"/>
+      <c r="M278" s="368"/>
       <c r="N278" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O278" s="313"/>
-      <c r="P278" s="177"/>
+      <c r="O278" s="137"/>
+      <c r="P278" s="172"/>
       <c r="Q278" s="176"/>
       <c r="R278" s="177"/>
       <c r="S278" s="254"/>
@@ -24249,14 +24309,14 @@
       <c r="A279" s="296"/>
       <c r="B279" s="295"/>
       <c r="C279" s="373"/>
-      <c r="D279" s="373"/>
+      <c r="D279" s="374"/>
       <c r="E279" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F279" s="136"/>
-      <c r="G279" s="477"/>
-      <c r="H279" s="331"/>
+      <c r="F279" s="292"/>
+      <c r="G279" s="480"/>
+      <c r="H279" s="375"/>
       <c r="I279" s="136"/>
       <c r="J279" s="46">
         <f t="shared" si="11"/>
@@ -24314,8 +24374,8 @@
     <row r="281" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="296"/>
       <c r="B281" s="295"/>
-      <c r="C281" s="377"/>
-      <c r="D281" s="377"/>
+      <c r="C281" s="373"/>
+      <c r="D281" s="373"/>
       <c r="E281" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -24345,39 +24405,37 @@
       <c r="V281" s="78"/>
     </row>
     <row r="282" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A282" s="378"/>
+      <c r="A282" s="296"/>
       <c r="B282" s="295"/>
-      <c r="C282" s="379"/>
-      <c r="D282" s="295"/>
+      <c r="C282" s="377"/>
+      <c r="D282" s="377"/>
       <c r="E282" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F282" s="347"/>
+      <c r="F282" s="136"/>
       <c r="G282" s="477"/>
-      <c r="H282" s="348"/>
-      <c r="I282" s="347">
-        <v>0</v>
-      </c>
+      <c r="H282" s="331"/>
+      <c r="I282" s="136"/>
       <c r="J282" s="46">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K282" s="380"/>
-      <c r="L282" s="276"/>
-      <c r="M282" s="380"/>
+      <c r="K282" s="127"/>
+      <c r="L282" s="114"/>
+      <c r="M282" s="376"/>
       <c r="N282" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O282" s="381"/>
+      <c r="O282" s="313"/>
       <c r="P282" s="177"/>
       <c r="Q282" s="176"/>
-      <c r="R282" s="382"/>
-      <c r="S282" s="383"/>
-      <c r="T282" s="384"/>
-      <c r="U282" s="353"/>
-      <c r="V282" s="357"/>
+      <c r="R282" s="177"/>
+      <c r="S282" s="254"/>
+      <c r="T282" s="255"/>
+      <c r="U282" s="77"/>
+      <c r="V282" s="78"/>
     </row>
     <row r="283" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="378"/>
@@ -24460,7 +24518,7 @@
       </c>
       <c r="F285" s="347"/>
       <c r="G285" s="477"/>
-      <c r="H285" s="385"/>
+      <c r="H285" s="348"/>
       <c r="I285" s="347">
         <v>0</v>
       </c>
@@ -24485,7 +24543,7 @@
       <c r="V285" s="357"/>
     </row>
     <row r="286" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A286" s="386"/>
+      <c r="A286" s="378"/>
       <c r="B286" s="295"/>
       <c r="C286" s="379"/>
       <c r="D286" s="295"/>
@@ -24495,7 +24553,7 @@
       </c>
       <c r="F286" s="347"/>
       <c r="G286" s="477"/>
-      <c r="H286" s="387"/>
+      <c r="H286" s="385"/>
       <c r="I286" s="347">
         <v>0</v>
       </c>
@@ -24516,33 +24574,38 @@
       <c r="R286" s="382"/>
       <c r="S286" s="383"/>
       <c r="T286" s="384"/>
-      <c r="U286" s="77"/>
-      <c r="V286" s="78"/>
+      <c r="U286" s="353"/>
+      <c r="V286" s="357"/>
     </row>
     <row r="287" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A287" s="388"/>
-      <c r="B287" s="389"/>
+      <c r="A287" s="386"/>
+      <c r="B287" s="295"/>
+      <c r="C287" s="379"/>
+      <c r="D287" s="295"/>
       <c r="E287" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H287" s="393"/>
-      <c r="I287" s="392">
+      <c r="F287" s="347"/>
+      <c r="G287" s="477"/>
+      <c r="H287" s="387"/>
+      <c r="I287" s="347">
         <v>0</v>
       </c>
       <c r="J287" s="46">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K287" s="394"/>
-      <c r="M287" s="394"/>
+      <c r="K287" s="380"/>
+      <c r="L287" s="276"/>
+      <c r="M287" s="380"/>
       <c r="N287" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O287" s="381"/>
       <c r="P287" s="177"/>
-      <c r="Q287" s="352"/>
+      <c r="Q287" s="176"/>
       <c r="R287" s="382"/>
       <c r="S287" s="383"/>
       <c r="T287" s="384"/>
@@ -24556,6 +24619,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="H288" s="393"/>
       <c r="I288" s="392">
         <v>0</v>
       </c>
@@ -24585,7 +24649,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I289" s="396">
+      <c r="I289" s="392">
         <v>0</v>
       </c>
       <c r="J289" s="46">
@@ -24607,25 +24671,21 @@
       <c r="U289" s="77"/>
       <c r="V289" s="78"/>
     </row>
-    <row r="290" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290" s="388"/>
       <c r="B290" s="389"/>
-      <c r="E290" s="65" t="e">
+      <c r="E290" s="65">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F290" s="525" t="s">
-        <v>26</v>
-      </c>
-      <c r="G290" s="525"/>
-      <c r="H290" s="526"/>
-      <c r="I290" s="397">
-        <f>SUM(I5:I289)</f>
-        <v>51906.39</v>
-      </c>
-      <c r="J290" s="398"/>
+        <v>0</v>
+      </c>
+      <c r="I290" s="396">
+        <v>0</v>
+      </c>
+      <c r="J290" s="46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="K290" s="394"/>
-      <c r="L290" s="399"/>
       <c r="M290" s="394"/>
       <c r="N290" s="50">
         <f t="shared" si="9"/>
@@ -24635,19 +24695,27 @@
       <c r="P290" s="177"/>
       <c r="Q290" s="352"/>
       <c r="R290" s="382"/>
-      <c r="S290" s="400"/>
-      <c r="T290" s="355"/>
-      <c r="U290" s="356"/>
+      <c r="S290" s="383"/>
+      <c r="T290" s="384"/>
+      <c r="U290" s="77"/>
       <c r="V290" s="78"/>
     </row>
-    <row r="291" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="401"/>
+    <row r="291" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="388"/>
       <c r="B291" s="389"/>
-      <c r="E291" s="65">
+      <c r="E291" s="65" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I291" s="402"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F291" s="587" t="s">
+        <v>26</v>
+      </c>
+      <c r="G291" s="587"/>
+      <c r="H291" s="588"/>
+      <c r="I291" s="397">
+        <f>SUM(I5:I290)</f>
+        <v>55677.99</v>
+      </c>
       <c r="J291" s="398"/>
       <c r="K291" s="394"/>
       <c r="L291" s="399"/>
@@ -24656,22 +24724,26 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O291" s="403"/>
-      <c r="Q291" s="13"/>
-      <c r="R291" s="404"/>
-      <c r="S291" s="405"/>
-      <c r="T291" s="406"/>
-      <c r="V291" s="16"/>
-    </row>
-    <row r="292" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A292" s="388"/>
+      <c r="O291" s="381"/>
+      <c r="P291" s="177"/>
+      <c r="Q291" s="352"/>
+      <c r="R291" s="382"/>
+      <c r="S291" s="400"/>
+      <c r="T291" s="355"/>
+      <c r="U291" s="356"/>
+      <c r="V291" s="78"/>
+    </row>
+    <row r="292" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="401"/>
       <c r="B292" s="389"/>
       <c r="E292" s="65">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J292" s="408"/>
+      <c r="I292" s="402"/>
+      <c r="J292" s="398"/>
       <c r="K292" s="394"/>
+      <c r="L292" s="399"/>
       <c r="M292" s="394"/>
       <c r="N292" s="50">
         <f t="shared" si="9"/>
@@ -24692,67 +24764,74 @@
         <v>0</v>
       </c>
       <c r="J293" s="408"/>
-      <c r="K293" s="409"/>
+      <c r="K293" s="394"/>
+      <c r="M293" s="394"/>
       <c r="N293" s="50">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O293" s="410"/>
+      <c r="O293" s="403"/>
       <c r="Q293" s="13"/>
       <c r="R293" s="404"/>
       <c r="S293" s="405"/>
-      <c r="T293" s="411"/>
+      <c r="T293" s="406"/>
       <c r="V293" s="16"/>
     </row>
     <row r="294" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A294" s="388"/>
-      <c r="H294" s="413"/>
-      <c r="I294" s="414" t="s">
-        <v>27</v>
-      </c>
-      <c r="J294" s="415"/>
-      <c r="K294" s="415"/>
-      <c r="L294" s="416">
-        <f>SUM(L282:L293)</f>
-        <v>0</v>
-      </c>
-      <c r="M294" s="417"/>
-      <c r="N294" s="418">
-        <f>SUM(N5:N293)</f>
-        <v>76799.569999999992</v>
-      </c>
-      <c r="O294" s="419"/>
-      <c r="Q294" s="420">
-        <f>SUM(Q5:Q293)</f>
-        <v>0</v>
-      </c>
-      <c r="R294" s="349"/>
-      <c r="S294" s="421">
-        <f>SUM(S26:S293)</f>
-        <v>56000</v>
-      </c>
-      <c r="T294" s="422"/>
-      <c r="U294" s="423"/>
-      <c r="V294" s="424">
-        <f>SUM(V282:V293)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B294" s="389"/>
+      <c r="E294" s="65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J294" s="408"/>
+      <c r="K294" s="409"/>
+      <c r="N294" s="50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O294" s="410"/>
+      <c r="Q294" s="13"/>
+      <c r="R294" s="404"/>
+      <c r="S294" s="405"/>
+      <c r="T294" s="411"/>
+      <c r="V294" s="16"/>
+    </row>
+    <row r="295" spans="1:22" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A295" s="388"/>
       <c r="H295" s="413"/>
-      <c r="I295" s="425"/>
-      <c r="J295" s="426"/>
-      <c r="K295" s="427"/>
-      <c r="M295" s="427"/>
-      <c r="N295" s="428"/>
+      <c r="I295" s="414" t="s">
+        <v>27</v>
+      </c>
+      <c r="J295" s="415"/>
+      <c r="K295" s="415"/>
+      <c r="L295" s="416">
+        <f>SUM(L283:L294)</f>
+        <v>0</v>
+      </c>
+      <c r="M295" s="417"/>
+      <c r="N295" s="418">
+        <f>SUM(N5:N294)</f>
+        <v>171089.57</v>
+      </c>
       <c r="O295" s="419"/>
-      <c r="R295" s="404"/>
-      <c r="S295" s="429"/>
-      <c r="U295" s="431"/>
-      <c r="V295"/>
-    </row>
-    <row r="296" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q295" s="420">
+        <f>SUM(Q5:Q294)</f>
+        <v>0</v>
+      </c>
+      <c r="R295" s="349"/>
+      <c r="S295" s="421">
+        <f>SUM(S26:S294)</f>
+        <v>56000</v>
+      </c>
+      <c r="T295" s="422"/>
+      <c r="U295" s="423"/>
+      <c r="V295" s="424">
+        <f>SUM(V283:V294)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A296" s="388"/>
       <c r="H296" s="413"/>
       <c r="I296" s="425"/>
@@ -24766,54 +24845,55 @@
       <c r="U296" s="431"/>
       <c r="V296"/>
     </row>
-    <row r="297" spans="1:22" ht="24" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" s="388"/>
-      <c r="I297" s="432" t="s">
-        <v>28</v>
-      </c>
-      <c r="J297" s="433"/>
-      <c r="K297" s="433"/>
-      <c r="L297" s="434"/>
-      <c r="M297" s="435"/>
-      <c r="N297" s="436">
-        <f>V294+S294+Q294+N294+L294</f>
-        <v>132799.57</v>
-      </c>
-      <c r="O297" s="437"/>
+      <c r="H297" s="413"/>
+      <c r="I297" s="425"/>
+      <c r="J297" s="426"/>
+      <c r="K297" s="427"/>
+      <c r="M297" s="427"/>
+      <c r="N297" s="428"/>
+      <c r="O297" s="419"/>
       <c r="R297" s="404"/>
       <c r="S297" s="429"/>
       <c r="U297" s="431"/>
       <c r="V297"/>
     </row>
-    <row r="298" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="438"/>
-      <c r="I298" s="439"/>
-      <c r="J298" s="440"/>
-      <c r="K298" s="440"/>
-      <c r="L298" s="441"/>
-      <c r="M298" s="442"/>
-      <c r="N298" s="443"/>
-      <c r="O298" s="444"/>
+    <row r="298" spans="1:22" ht="24" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="388"/>
+      <c r="I298" s="432" t="s">
+        <v>28</v>
+      </c>
+      <c r="J298" s="433"/>
+      <c r="K298" s="433"/>
+      <c r="L298" s="434"/>
+      <c r="M298" s="435"/>
+      <c r="N298" s="436">
+        <f>V295+S295+Q295+N295+L295</f>
+        <v>227089.57</v>
+      </c>
+      <c r="O298" s="437"/>
       <c r="R298" s="404"/>
       <c r="S298" s="429"/>
       <c r="U298" s="431"/>
       <c r="V298"/>
     </row>
-    <row r="299" spans="1:22" ht="24" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="438"/>
-      <c r="I299" s="425"/>
-      <c r="J299" s="426"/>
-      <c r="K299" s="427"/>
-      <c r="M299" s="427"/>
-      <c r="N299" s="428"/>
-      <c r="O299" s="419"/>
+      <c r="I299" s="439"/>
+      <c r="J299" s="440"/>
+      <c r="K299" s="440"/>
+      <c r="L299" s="441"/>
+      <c r="M299" s="442"/>
+      <c r="N299" s="443"/>
+      <c r="O299" s="444"/>
       <c r="R299" s="404"/>
       <c r="S299" s="429"/>
       <c r="U299" s="431"/>
       <c r="V299"/>
     </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A300" s="388"/>
+    <row r="300" spans="1:22" ht="24" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="438"/>
       <c r="I300" s="425"/>
       <c r="J300" s="426"/>
       <c r="K300" s="427"/>
@@ -24828,20 +24908,24 @@
     <row r="301" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A301" s="388"/>
       <c r="I301" s="425"/>
-      <c r="J301" s="445"/>
+      <c r="J301" s="426"/>
       <c r="K301" s="427"/>
       <c r="M301" s="427"/>
       <c r="N301" s="428"/>
-      <c r="O301" s="446"/>
+      <c r="O301" s="419"/>
       <c r="R301" s="404"/>
       <c r="S301" s="429"/>
       <c r="U301" s="431"/>
       <c r="V301"/>
     </row>
     <row r="302" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A302" s="438"/>
+      <c r="A302" s="388"/>
+      <c r="I302" s="425"/>
+      <c r="J302" s="445"/>
+      <c r="K302" s="427"/>
+      <c r="M302" s="427"/>
       <c r="N302" s="428"/>
-      <c r="O302" s="448"/>
+      <c r="O302" s="446"/>
       <c r="R302" s="404"/>
       <c r="S302" s="429"/>
       <c r="U302" s="431"/>
@@ -24849,22 +24933,22 @@
     </row>
     <row r="303" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A303" s="438"/>
+      <c r="N303" s="428"/>
       <c r="O303" s="448"/>
+      <c r="R303" s="404"/>
       <c r="S303" s="429"/>
       <c r="U303" s="431"/>
       <c r="V303"/>
     </row>
     <row r="304" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A304" s="388"/>
-      <c r="B304" s="389"/>
-      <c r="N304" s="428"/>
-      <c r="O304" s="419"/>
+      <c r="A304" s="438"/>
+      <c r="O304" s="448"/>
       <c r="S304" s="429"/>
       <c r="U304" s="431"/>
       <c r="V304"/>
     </row>
     <row r="305" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A305" s="438"/>
+      <c r="A305" s="388"/>
       <c r="B305" s="389"/>
       <c r="N305" s="428"/>
       <c r="O305" s="419"/>
@@ -24873,12 +24957,8 @@
       <c r="V305"/>
     </row>
     <row r="306" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A306" s="388"/>
+      <c r="A306" s="438"/>
       <c r="B306" s="389"/>
-      <c r="I306" s="425"/>
-      <c r="J306" s="426"/>
-      <c r="K306" s="427"/>
-      <c r="M306" s="427"/>
       <c r="N306" s="428"/>
       <c r="O306" s="419"/>
       <c r="S306" s="429"/>
@@ -24886,7 +24966,7 @@
       <c r="V306"/>
     </row>
     <row r="307" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A307" s="438"/>
+      <c r="A307" s="388"/>
       <c r="B307" s="389"/>
       <c r="I307" s="425"/>
       <c r="J307" s="426"/>
@@ -24899,10 +24979,12 @@
       <c r="V307"/>
     </row>
     <row r="308" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A308" s="388"/>
+      <c r="A308" s="438"/>
       <c r="B308" s="389"/>
-      <c r="J308" s="423"/>
-      <c r="K308" s="423"/>
+      <c r="I308" s="425"/>
+      <c r="J308" s="426"/>
+      <c r="K308" s="427"/>
+      <c r="M308" s="427"/>
       <c r="N308" s="428"/>
       <c r="O308" s="419"/>
       <c r="S308" s="429"/>
@@ -24910,39 +24992,30 @@
       <c r="V308"/>
     </row>
     <row r="309" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A309" s="438"/>
+      <c r="A309" s="388"/>
+      <c r="B309" s="389"/>
+      <c r="J309" s="423"/>
+      <c r="K309" s="423"/>
+      <c r="N309" s="428"/>
+      <c r="O309" s="419"/>
       <c r="S309" s="429"/>
       <c r="U309" s="431"/>
       <c r="V309"/>
     </row>
     <row r="310" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A310" s="388"/>
+      <c r="A310" s="438"/>
       <c r="S310" s="429"/>
       <c r="U310" s="431"/>
       <c r="V310"/>
     </row>
     <row r="311" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A311" s="388"/>
-      <c r="B311" s="450"/>
-      <c r="C311" s="451"/>
-      <c r="D311" s="450"/>
-      <c r="E311" s="452"/>
-      <c r="F311" s="453"/>
-      <c r="G311" s="482"/>
-      <c r="H311" s="454"/>
-      <c r="I311" s="453"/>
-      <c r="J311"/>
-      <c r="K311"/>
-      <c r="L311" s="455"/>
-      <c r="M311"/>
-      <c r="P311" s="456"/>
-      <c r="Q311" s="429"/>
       <c r="S311" s="429"/>
       <c r="U311" s="431"/>
       <c r="V311"/>
     </row>
     <row r="312" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A312" s="438"/>
+      <c r="A312" s="388"/>
       <c r="B312" s="450"/>
       <c r="C312" s="451"/>
       <c r="D312" s="450"/>
@@ -25002,7 +25075,7 @@
       <c r="V314"/>
     </row>
     <row r="315" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A315" s="457"/>
+      <c r="A315" s="438"/>
       <c r="B315" s="450"/>
       <c r="C315" s="451"/>
       <c r="D315" s="450"/>
@@ -25022,7 +25095,7 @@
       <c r="V315"/>
     </row>
     <row r="316" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A316" s="401"/>
+      <c r="A316" s="457"/>
       <c r="B316" s="450"/>
       <c r="C316" s="451"/>
       <c r="D316" s="450"/>
@@ -25042,7 +25115,7 @@
       <c r="V316"/>
     </row>
     <row r="317" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A317" s="388"/>
+      <c r="A317" s="401"/>
       <c r="B317" s="450"/>
       <c r="C317" s="451"/>
       <c r="D317" s="450"/>
@@ -25181,33 +25254,53 @@
       <c r="U323" s="431"/>
       <c r="V323"/>
     </row>
+    <row r="324" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A324" s="388"/>
+      <c r="B324" s="450"/>
+      <c r="C324" s="451"/>
+      <c r="D324" s="450"/>
+      <c r="E324" s="452"/>
+      <c r="F324" s="453"/>
+      <c r="G324" s="482"/>
+      <c r="H324" s="454"/>
+      <c r="I324" s="453"/>
+      <c r="J324"/>
+      <c r="K324"/>
+      <c r="L324" s="455"/>
+      <c r="M324"/>
+      <c r="P324" s="456"/>
+      <c r="Q324" s="429"/>
+      <c r="S324" s="429"/>
+      <c r="U324" s="431"/>
+      <c r="V324"/>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="S69:S74"/>
-    <mergeCell ref="T69:T74"/>
-    <mergeCell ref="S75:S78"/>
-    <mergeCell ref="T75:T78"/>
-    <mergeCell ref="F290:H290"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="O64:O67"/>
-    <mergeCell ref="P64:P67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="C64:C67"/>
     <mergeCell ref="G64:G67"/>
     <mergeCell ref="H64:H67"/>
     <mergeCell ref="L64:L67"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="S76:S79"/>
+    <mergeCell ref="T76:T79"/>
+    <mergeCell ref="F291:H291"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="O64:O67"/>
+    <mergeCell ref="P64:P67"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:C73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="S69:S75"/>
+    <mergeCell ref="T69:T75"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="C68:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
